--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/git/helloworld/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -149,11 +149,225 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.国际原油大幅走低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.美参院以压倒性票数通过提案，限制特朗普关税权力. 2. </t>
+    <t xml:space="preserve">1.国际原油大幅走低. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高送转、机场航运、白酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币贬值、水利水电、富勒烯，纺织、环保</t>
+    <rPh sb="0" eb="1">
+      <t>ren'mi'bi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shui'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shui'dian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu'le'xi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fang'zhi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>huan'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 人民币贬值跌破6.74。 2.央行连续释放流动性</t>
+    <rPh sb="3" eb="4">
+      <t>ren'min'bi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>die'po</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yang'hang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>lian'xu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi'fang</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>liu'dong'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.美参院以压倒性票数通过提案，限制特朗普关税权力. 2. 美国商务部和中兴达成协议取消制裁</t>
+    <rPh sb="30" eb="31">
+      <t>mei'guo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shang'wu'b</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>he</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zhong'xing</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>da'cheng</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>xie'yi</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>qu'xiao'zhi'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5G、芯片、半导体、乡村振新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.美方昨晚公布了对2000亿美元中国输美产品征收10%关税的建议产品清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识产权保护、网络安全、共享单车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯拉概念、农业</t>
+    <rPh sb="0" eb="1">
+      <t>te's'l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gai'n</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nong'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中报业绩预增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植业、电子竞技、小程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高送转、次新股、石油矿业，天然气</t>
+    <rPh sb="13" eb="14">
+      <t>tian'ran'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.天然气涨价</t>
+    <rPh sb="2" eb="3">
+      <t>tian'ran'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhang'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药，石油采掘，次新</t>
+    <rPh sb="0" eb="1">
+      <t>yi'yao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cai'jue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 监管层表态维稳。2. 油价上涨</t>
+    <rPh sb="3" eb="4">
+      <t>jian'guan'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao'tai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei'wen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>you'jia'shang'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次新，乡村振新，高送转，芯片</t>
+    <rPh sb="0" eb="1">
+      <t>ci'in</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen'xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao'song'z</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xin'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.美国加征关税消息落地。2. 有机硅价格上涨。3. 猪价上涨</t>
+    <rPh sb="2" eb="3">
+      <t>mei'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'zheng'guan's</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>luo'di</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>you'ji'gui</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jia'ge</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shang'z</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhu'rou</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>jia'ge</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shang'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,13 +391,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,10 +435,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -479,14 +718,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" customWidth="1"/>
     <col min="5" max="5" width="55.1640625" customWidth="1"/>
@@ -494,94 +735,213 @@
     <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>43298</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>-5.7000000000000002E-3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>43297</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>-6.1000000000000004E-3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>43294</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>2.3E-3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>43293</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>43292</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1.7600000000000001E-2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>43291</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>43290</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.47E-2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>43287</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -368,6 +368,64 @@
   </si>
   <si>
     <t>#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币贬值、富勒烯，人民币贬值，管道</t>
+    <rPh sb="0" eb="1">
+      <t>ren'mi'bi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'le'xi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ren'min'bi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bian'z</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>guan'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游，黄金，种植业与林业、机场航运、生物制品</t>
+    <rPh sb="0" eb="1">
+      <t>lv'you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huang'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 人民币贬值跌破6.75。 2.贵州超级高铁。</t>
+    <rPh sb="3" eb="4">
+      <t>ren'min'bi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>die'po</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gui'zhou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chao'ji</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gao'tie</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,189 +817,212 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3">
+        <v>43300</v>
+      </c>
       <c r="B2" s="2">
-        <v>-3.8999999999999998E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B3" s="2">
-        <v>-5.7000000000000002E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
+        <v>43298</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>43297</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>-6.1000000000000004E-3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>43294</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B7" s="2">
-        <v>2.1600000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B8" s="2">
-        <v>-1.7600000000000001E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B9" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
+        <v>43291</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>43290</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>2.47E-2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>43287</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -425,6 +425,78 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>gao'tie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人驾驶，银行，证券</t>
+    <rPh sb="0" eb="1">
+      <t>wu'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'sh</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin'hang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 银保监会开展偿付能力等评估。2、央行零投放零回笼本周净投放5400亿。3、</t>
+    <rPh sb="3" eb="4">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'jian'hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'zhan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chang'fu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>neng'li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ping'gu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yang'hang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ling'tou'fang</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ling'hui'long</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ben'z</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jing</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>tou'fang</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线旅游</t>
+    <rPh sb="0" eb="1">
+      <t>zai'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lv'you</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -776,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,211 +890,228 @@
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>43300</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-5.0000000000000001E-3</v>
-      </c>
+        <v>43301</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B3" s="2">
-        <v>-3.8999999999999998E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B4" s="2">
-        <v>-5.7000000000000002E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <v>43298</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>43297</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>-6.1000000000000004E-3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43294</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B8" s="2">
-        <v>2.1600000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B9" s="2">
-        <v>-1.7600000000000001E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B10" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
+        <v>43291</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>43290</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>2.47E-2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>43287</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>日期</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>国防军工、水泥、钢铁</t>
+  </si>
+  <si>
+    <t>医药</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 长生生物引发疫苗危机. 2.军工企业入围第三批混改试点. 3. </t>
   </si>
   <si>
     <t>无人驾驶，银行，证券</t>
@@ -142,12 +151,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -168,11 +177,6 @@
       <color indexed="8"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -203,19 +207,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -538,11 +542,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -566,10 +570,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -607,231 +611,268 @@
       </c>
     </row>
     <row r="2" ht="18" spans="1:7">
-      <c r="A2" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43300</v>
+        <v>43304</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.005</v>
+        <v>0.0107</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" spans="1:7">
-      <c r="A4" s="2">
-        <v>43299</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-0.0039</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:7">
       <c r="A5" s="2">
-        <v>43298</v>
+        <v>43301</v>
       </c>
       <c r="B5" s="3">
-        <v>-0.0057</v>
+        <v>0.0205</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
       <c r="A6" s="2">
-        <v>43297</v>
+        <v>43300</v>
       </c>
       <c r="B6" s="3">
-        <v>-0.0061</v>
+        <v>-0.005</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="2">
+        <v>43299</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-0.0039</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43294</v>
+        <v>43298</v>
       </c>
       <c r="B8" s="3">
-        <v>0.0023</v>
+        <v>-0.0057</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43293</v>
+        <v>43297</v>
       </c>
       <c r="B9" s="3">
-        <v>0.0216</v>
+        <v>-0.0061</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="2">
-        <v>43292</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-0.0176</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
       <c r="A11" s="2">
-        <v>43291</v>
+        <v>43294</v>
       </c>
       <c r="B11" s="3">
-        <v>0.0044</v>
+        <v>0.0023</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
       <c r="A12" s="2">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="B12" s="3">
-        <v>0.0247</v>
+        <v>0.0216</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-0.0176</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.0044</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:7">
+      <c r="A15" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="18" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="18" spans="1:7">
+      <c r="A17" s="2">
         <v>43287</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B17" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/git/helloworld/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20280" windowHeight="7935" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>日期</t>
   </si>
@@ -56,107 +68,138 @@
     <t>1. 银保监会开展偿付能力等评估。2、央行零投放零回笼本周净投放5400亿。3、市场预估央行放水</t>
   </si>
   <si>
+    <t>旅游，黄金，种植业与林业、机场航运、生物制品</t>
+  </si>
+  <si>
+    <t>1. 人民币贬值跌破6.75。 2.贵州超级高铁。</t>
+  </si>
+  <si>
+    <t>人民币贬值、水利水电、富勒烯，纺织、环保</t>
+  </si>
+  <si>
+    <t>高送转、机场航运、白酒</t>
+  </si>
+  <si>
+    <t>1. 人民币贬值跌破6.74。 2.央行连续释放流动性</t>
+  </si>
+  <si>
+    <t>石墨烯、养殖业、化工新材料</t>
+  </si>
+  <si>
+    <t>钢铁、钛白粉、白酒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.国际原油大幅走低. </t>
+  </si>
+  <si>
+    <t>5G、国防军工、大飞机、富勒烯</t>
+  </si>
+  <si>
+    <t>银行、高送转、汽车整车</t>
+  </si>
+  <si>
+    <t>1. 上半年经济数据公布。2、中兴解禁。3、2017年7月24日，中共中央政治局召开会议. 4. 世界杯结束</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>大消费行业、酿酒、医药、食品饮料</t>
+  </si>
+  <si>
+    <t>船舶、环保、石油</t>
+  </si>
+  <si>
+    <t>5G、芯片、半导体、乡村振新</t>
+  </si>
+  <si>
+    <t>1.美参院以压倒性票数通过提案，限制特朗普关税权力. 2. 美国商务部和中兴达成协议取消制裁</t>
+  </si>
+  <si>
+    <t>特斯拉概念、农业</t>
+  </si>
+  <si>
+    <t>知识产权保护、网络安全、共享单车</t>
+  </si>
+  <si>
+    <t>1.美方昨晚公布了对2000亿美元中国输美产品征收10%关税的建议产品清单</t>
+  </si>
+  <si>
+    <t>高送转、次新股、石油矿业，天然气</t>
+  </si>
+  <si>
+    <t>种植业、电子竞技、小程序</t>
+  </si>
+  <si>
+    <t>1.天然气涨价</t>
+  </si>
+  <si>
+    <t>中报业绩预增</t>
+  </si>
+  <si>
+    <t>医药，石油采掘，次新</t>
+  </si>
+  <si>
+    <t>1. 监管层表态维稳。2. 油价上涨</t>
+  </si>
+  <si>
+    <t>次新，乡村振新，高送转，芯片</t>
+  </si>
+  <si>
+    <t>环保</t>
+  </si>
+  <si>
+    <t>1.美国加征关税消息落地。2. 有机硅价格上涨。3. 猪价上涨</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>水泥、建筑装饰、白酒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场航运，生物制药</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hang'yun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sehng'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'yao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极财政政策的预期下，基建投资概念股股全线爆发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>人民币贬值、富勒烯，人民币贬值，管道</t>
-  </si>
-  <si>
-    <t>旅游，黄金，种植业与林业、机场航运、生物制品</t>
-  </si>
-  <si>
-    <t>1. 人民币贬值跌破6.75。 2.贵州超级高铁。</t>
-  </si>
-  <si>
-    <t>人民币贬值、水利水电、富勒烯，纺织、环保</t>
-  </si>
-  <si>
-    <t>高送转、机场航运、白酒</t>
-  </si>
-  <si>
-    <t>1. 人民币贬值跌破6.74。 2.央行连续释放流动性</t>
-  </si>
-  <si>
-    <t>石墨烯、养殖业、化工新材料</t>
-  </si>
-  <si>
-    <t>钢铁、钛白粉、白酒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.国际原油大幅走低. </t>
-  </si>
-  <si>
-    <t>5G、国防军工、大飞机、富勒烯</t>
-  </si>
-  <si>
-    <t>银行、高送转、汽车整车</t>
-  </si>
-  <si>
-    <t>1. 上半年经济数据公布。2、中兴解禁。3、2017年7月24日，中共中央政治局召开会议. 4. 世界杯结束</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>大消费行业、酿酒、医药、食品饮料</t>
-  </si>
-  <si>
-    <t>船舶、环保、石油</t>
-  </si>
-  <si>
-    <t>5G、芯片、半导体、乡村振新</t>
-  </si>
-  <si>
-    <t>1.美参院以压倒性票数通过提案，限制特朗普关税权力. 2. 美国商务部和中兴达成协议取消制裁</t>
-  </si>
-  <si>
-    <t>特斯拉概念、农业</t>
-  </si>
-  <si>
-    <t>知识产权保护、网络安全、共享单车</t>
-  </si>
-  <si>
-    <t>1.美方昨晚公布了对2000亿美元中国输美产品征收10%关税的建议产品清单</t>
-  </si>
-  <si>
-    <t>高送转、次新股、石油矿业，天然气</t>
-  </si>
-  <si>
-    <t>种植业、电子竞技、小程序</t>
-  </si>
-  <si>
-    <t>1.天然气涨价</t>
-  </si>
-  <si>
-    <t>中报业绩预增</t>
-  </si>
-  <si>
-    <t>医药，石油采掘，次新</t>
-  </si>
-  <si>
-    <t>1. 监管层表态维稳。2. 油价上涨</t>
-  </si>
-  <si>
-    <t>次新，乡村振新，高送转，芯片</t>
-  </si>
-  <si>
-    <t>环保</t>
-  </si>
-  <si>
-    <t>1.美国加征关税消息落地。2. 有机硅价格上涨。3. 猪价上涨</t>
-  </si>
-  <si>
-    <t>#1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南、钢铁、青海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘计算、石墨电极、服装家纺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.中国雄安集团7月23日与区块链技术公司ConsenSys在北京进行座谈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -178,6 +221,19 @@
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,23 +259,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -230,14 +271,16 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -536,6 +579,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -568,26 +612,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="55.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:7">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:7">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -619,263 +662,300 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="18" spans="1:7">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43304</v>
+        <v>43306</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0107</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="18" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="18" spans="1:7">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="B5" s="3">
-        <v>0.0205</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="2">
-        <v>43300</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-0.005</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="18" spans="1:7">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>43299</v>
+        <v>43301</v>
       </c>
       <c r="B7" s="3">
-        <v>-0.0039</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" ht="18" spans="1:7">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43298</v>
+        <v>43300</v>
       </c>
       <c r="B8" s="3">
-        <v>-0.0057</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" ht="18" spans="1:7">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43297</v>
+        <v>43299</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.0061</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="18" spans="1:7">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>43294</v>
+        <v>43297</v>
       </c>
       <c r="B11" s="3">
-        <v>0.0023</v>
+        <v>-6.1000000000000004E-3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" ht="18" spans="1:7">
-      <c r="A12" s="2">
-        <v>43293</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.0216</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="18" spans="1:7">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>43292</v>
+        <v>43294</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.0176</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" ht="18" spans="1:7">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="B14" s="3">
-        <v>0.0044</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" ht="18" spans="1:7">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>43290</v>
+        <v>43292</v>
       </c>
       <c r="B15" s="3">
-        <v>0.0247</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="18" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="18" spans="1:7">
+      <c r="G16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.47E-2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>43287</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.0049</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B19" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="G19" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>日期</t>
   </si>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>1.中国雄安集团7月23日与区块链技术公司ConsenSys在北京进行座谈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津自贸区、宁夏、公路铁路运输</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字中国、次新股、国产软件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,294 +672,311 @@
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B3" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B4" s="3">
-        <v>1.61E-2</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>43304</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B8" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B9" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B10" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>43297</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>-6.1000000000000004E-3</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B14" s="3">
-        <v>2.1600000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B15" s="3">
-        <v>-1.7600000000000001E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B16" s="3">
-        <v>4.4000000000000003E-3</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>43290</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>2.47E-2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>43287</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/git/helloworld/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView windowWidth="20280" windowHeight="7935" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +38,36 @@
     <t>活跃概念</t>
   </si>
   <si>
+    <t>非汽车交运、两桶油改革、水泥</t>
+  </si>
+  <si>
+    <t>酒店及餐饮、西藏、基因预测</t>
+  </si>
+  <si>
+    <t>天津自贸区、宁夏、公路铁路运输</t>
+  </si>
+  <si>
+    <t>数字中国、次新股、国产软件</t>
+  </si>
+  <si>
+    <t>海南、钢铁、青海</t>
+  </si>
+  <si>
+    <t>边缘计算、石墨电极、服装家纺</t>
+  </si>
+  <si>
+    <t>1.中国雄安集团7月23日与区块链技术公司ConsenSys在北京进行座谈</t>
+  </si>
+  <si>
+    <t>水泥、建筑装饰、白酒</t>
+  </si>
+  <si>
+    <t>机场航运，生物制药</t>
+  </si>
+  <si>
+    <t>积极财政政策的预期下，基建投资概念股股全线爆发</t>
+  </si>
+  <si>
     <t>国防军工、水泥、钢铁</t>
   </si>
   <si>
@@ -68,6 +86,9 @@
     <t>1. 银保监会开展偿付能力等评估。2、央行零投放零回笼本周净投放5400亿。3、市场预估央行放水</t>
   </si>
   <si>
+    <t>人民币贬值、富勒烯，人民币贬值，管道</t>
+  </si>
+  <si>
     <t>旅游，黄金，种植业与林业、机场航运、生物制品</t>
   </si>
   <si>
@@ -153,61 +174,19 @@
   </si>
   <si>
     <t>#1</t>
-  </si>
-  <si>
-    <t>水泥、建筑装饰、白酒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>机场航运，生物制药</t>
-    <rPh sb="0" eb="1">
-      <t>ji'chang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hang'yun</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>sehng'wu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhi'yao</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>积极财政政策的预期下，基建投资概念股股全线爆发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民币贬值、富勒烯，人民币贬值，管道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南、钢铁、青海</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>边缘计算、石墨电极、服装家纺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.中国雄安集团7月23日与区块链技术公司ConsenSys在北京进行座谈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津自贸区、宁夏、公路铁路运输</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字中国、次新股、国产软件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -231,17 +210,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -267,8 +238,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -279,16 +265,14 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -587,7 +571,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -620,25 +603,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="55.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" ht="18" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" ht="18" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -670,317 +654,342 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43307</v>
+        <v>43311</v>
       </c>
       <c r="B3" s="3">
-        <v>-7.4000000000000003E-3</v>
+        <v>-0.0016</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43306</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-6.9999999999999999E-4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
-      </c>
+    <row r="4" ht="18" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" ht="18" spans="1:7">
       <c r="A5" s="2">
-        <v>43305</v>
+        <v>43307</v>
       </c>
       <c r="B5" s="3">
-        <v>1.61E-2</v>
+        <v>-0.0074</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="18" spans="1:7">
       <c r="A6" s="2">
-        <v>43304</v>
+        <v>43306</v>
       </c>
       <c r="B6" s="3">
-        <v>1.0699999999999999E-2</v>
+        <v>-0.0007</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" ht="18" spans="1:5">
+      <c r="A7" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.0161</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="B8" s="3">
-        <v>2.0500000000000001E-2</v>
+        <v>0.0107</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>43300</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="9" ht="18" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" ht="18" spans="1:7">
       <c r="A10" s="2">
-        <v>43299</v>
+        <v>43301</v>
       </c>
       <c r="B10" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>0.0205</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" ht="18" spans="1:7">
       <c r="A11" s="2">
-        <v>43298</v>
+        <v>43300</v>
       </c>
       <c r="B11" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" ht="18" spans="1:7">
       <c r="A12" s="2">
-        <v>43297</v>
+        <v>43299</v>
       </c>
       <c r="B12" s="3">
-        <v>-6.1000000000000004E-3</v>
+        <v>-0.0039</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+    <row r="13" ht="18" spans="1:7">
+      <c r="A13" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-0.0057</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43294</v>
+        <v>43297</v>
       </c>
       <c r="B14" s="3">
-        <v>2.3E-3</v>
+        <v>-0.0061</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>43293</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="15" ht="18" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" ht="18" spans="1:7">
       <c r="A16" s="2">
-        <v>43292</v>
+        <v>43294</v>
       </c>
       <c r="B16" s="3">
-        <v>-1.7600000000000001E-2</v>
+        <v>0.0023</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" ht="18" spans="1:7">
       <c r="A17" s="2">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="B17" s="3">
-        <v>4.4000000000000003E-3</v>
+        <v>0.0216</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43290</v>
+        <v>43292</v>
       </c>
       <c r="B18" s="3">
-        <v>2.47E-2</v>
+        <v>-0.0176</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+    <row r="19" ht="18" spans="1:7">
+      <c r="A19" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.0044</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="G19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" ht="18" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="18" spans="1:7">
+      <c r="A22" s="2">
         <v>43287</v>
       </c>
-      <c r="B20" s="3">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="4"/>
+      <c r="B22" s="3">
+        <v>0.0049</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/git/helloworld/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20280" windowHeight="7935" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20280" windowHeight="7940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>日期</t>
   </si>
@@ -174,19 +186,35 @@
   </si>
   <si>
     <t>#1</t>
+  </si>
+  <si>
+    <t>宁夏、两桶油改革、钢铁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安自贸区、无人零售、农业服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.部分央行分支行已在执行调整MPA部分参数的要求，以适当放松考核要求，促进银行加大信贷投放。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国企改革</t>
+    <rPh sb="0" eb="1">
+      <t>guo'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gai'ge</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -210,8 +238,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -238,23 +267,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -265,14 +279,16 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -571,6 +587,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -603,26 +620,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="55.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:7">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:7">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -654,12 +670,12 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="18" spans="1:7">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43311</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.0016</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -671,7 +687,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="18" spans="1:7">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -680,316 +696,338 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="18" spans="1:7">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
+        <v>43308</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>43307</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.0074</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B6" s="3">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="2">
-        <v>43306</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-0.0007</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="18" spans="1:5">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>43305</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.0161</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="3">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:7">
-      <c r="A8" s="2">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>43304</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.0107</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="18" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="18" spans="1:7">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B11" s="3">
-        <v>-0.005</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" ht="18" spans="1:7">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B12" s="3">
-        <v>-0.0039</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="18" spans="1:7">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.0057</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" ht="18" spans="1:7">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>43297</v>
       </c>
-      <c r="B14" s="3">
-        <v>-0.0061</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B15" s="3">
+        <v>-6.1000000000000004E-3</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" ht="18" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="18" spans="1:7">
-      <c r="A16" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.0023</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>37</v>
-      </c>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" ht="18" spans="1:7">
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B17" s="3">
-        <v>0.0216</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" ht="18" spans="1:7">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B18" s="3">
-        <v>-0.0176</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" ht="18" spans="1:7">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-1.7600000000000001E-2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>43291</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.0044</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B20" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:7">
-      <c r="A20" s="2">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>43290</v>
       </c>
-      <c r="B20" s="3">
-        <v>0.0247</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B21" s="3">
+        <v>2.47E-2</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" ht="18" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" ht="18" spans="1:7">
-      <c r="A22" s="2">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>43287</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.0049</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B23" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G23" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20280" windowHeight="7940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>日期</t>
   </si>
@@ -205,6 +205,33 @@
       <t>guo'qi</t>
     </rPh>
     <rPh sb="2" eb="3">
+      <t>gai'ge</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采掘服务、油品改革、天然气</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳国资改革、公交、自由贸易港</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 石油期货大涨。2. 国企改革</t>
+    <rPh sb="3" eb="4">
+      <t>shi'you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi'huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>da'zhang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>guo'qi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>gai'ge</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -621,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,358 +699,377 @@
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B3" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B6" s="3">
-        <v>-7.4000000000000003E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B7" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B8" s="3">
-        <v>1.61E-2</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>43304</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B12" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B13" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B14" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>43297</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>-6.1000000000000004E-3</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B18" s="3">
-        <v>2.1600000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B19" s="3">
-        <v>-1.7600000000000001E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B20" s="3">
-        <v>4.4000000000000003E-3</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>43290</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>2.47E-2</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>43287</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>日期</t>
   </si>
@@ -233,6 +233,39 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>gai'ge</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由贸易港、天津自贸区、造纸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁、军工、地产</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 中央关于严格遏制房价上涨表态。2.宣布对价值2000亿美元中国输美商品征收关税，税率从10%上调至25%</t>
+    <rPh sb="3" eb="4">
+      <t>zhong'yang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan'yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yan'ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>e'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fang'jia</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shang'z</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>biao't</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -648,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,377 +732,396 @@
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B3" s="3">
-        <v>2.5999999999999999E-3</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B4" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B7" s="3">
-        <v>-7.4000000000000003E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B8" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B9" s="3">
-        <v>1.61E-2</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>43304</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B13" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B14" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B15" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>43297</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>-6.1000000000000004E-3</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B19" s="3">
-        <v>2.1600000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B20" s="3">
-        <v>-1.7600000000000001E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B21" s="3">
-        <v>4.4000000000000003E-3</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>43290</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>2.47E-2</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>43287</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/git/helloworld/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView windowWidth="20280" windowHeight="7935" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>日期</t>
   </si>
@@ -50,12 +39,63 @@
     <t>活跃概念</t>
   </si>
   <si>
+    <t>煤炭开采加工、农业服务、猪肉</t>
+  </si>
+  <si>
+    <t>水泥、西藏、集成</t>
+  </si>
+  <si>
+    <t>1. 贸易战升级，美国加增关税从10%至25%</t>
+  </si>
+  <si>
+    <t>新疆，西藏，大基建，棉花</t>
+  </si>
+  <si>
+    <t>军工，养鸡，科技，</t>
+  </si>
+  <si>
+    <t>1. 贸易战升级, 特朗普宣称要加增关税</t>
+  </si>
+  <si>
+    <t>进口博览会，宁夏，电解锰，大基建</t>
+  </si>
+  <si>
+    <t>自由贸易港、天津自贸区、造纸</t>
+  </si>
+  <si>
+    <t>钢铁、军工、地产</t>
+  </si>
+  <si>
+    <t>1. 中央关于严格遏制房价上涨表态。2.宣布对价值2000亿美元中国输美商品征收关税，税率从10%上调至25%</t>
+  </si>
+  <si>
+    <t>采掘服务、油品改革、天然气</t>
+  </si>
+  <si>
+    <t>深圳国资改革、公交、自由贸易港</t>
+  </si>
+  <si>
+    <t>1. 石油期货大涨。2. 国企改革</t>
+  </si>
+  <si>
     <t>非汽车交运、两桶油改革、水泥</t>
   </si>
   <si>
     <t>酒店及餐饮、西藏、基因预测</t>
   </si>
   <si>
+    <t>宁夏、两桶油改革、钢铁</t>
+  </si>
+  <si>
+    <t>西安自贸区、无人零售、农业服务</t>
+  </si>
+  <si>
+    <t>1.部分央行分支行已在执行调整MPA部分参数的要求，以适当放松考核要求，促进银行加大信贷投放。</t>
+  </si>
+  <si>
+    <t>国企改革</t>
+  </si>
+  <si>
     <t>天津自贸区、宁夏、公路铁路运输</t>
   </si>
   <si>
@@ -186,95 +226,19 @@
   </si>
   <si>
     <t>#1</t>
-  </si>
-  <si>
-    <t>宁夏、两桶油改革、钢铁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安自贸区、无人零售、农业服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.部分央行分支行已在执行调整MPA部分参数的要求，以适当放松考核要求，促进银行加大信贷投放。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国企改革</t>
-    <rPh sb="0" eb="1">
-      <t>guo'qi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gai'ge</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>采掘服务、油品改革、天然气</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳国资改革、公交、自由贸易港</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 石油期货大涨。2. 国企改革</t>
-    <rPh sb="3" eb="4">
-      <t>shi'you</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qi'huo</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>da'zhang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>guo'qi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>gai'ge</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由贸易港、天津自贸区、造纸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢铁、军工、地产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 中央关于严格遏制房价上涨表态。2.宣布对价值2000亿美元中国输美商品征收关税，税率从10%上调至25%</t>
-    <rPh sb="3" eb="4">
-      <t>zhong'yang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>guan'yu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yan'ge</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>e'zhi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fang'jia</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shang'z</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>biao't</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -298,9 +262,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -327,8 +290,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -339,16 +317,14 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -647,7 +623,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -680,25 +655,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="55.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" ht="18" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" ht="18" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -730,402 +706,463 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43313</v>
+        <v>43315</v>
       </c>
       <c r="B3" s="3">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" ht="18" spans="1:7">
       <c r="A4" s="2">
-        <v>43312</v>
+        <v>43314</v>
       </c>
       <c r="B4" s="3">
-        <v>2.5999999999999999E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:7">
       <c r="A5" s="2">
-        <v>43311</v>
+        <v>43313</v>
       </c>
       <c r="B5" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>-0.018</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row r="6" ht="18" spans="1:7">
+      <c r="A6" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.0026</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" ht="18" spans="1:7">
       <c r="A7" s="2">
-        <v>43308</v>
+        <v>43311</v>
       </c>
       <c r="B7" s="3">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.0016</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>43307</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-7.4000000000000003E-3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" ht="18" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
+        <v>43308</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-0.003</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:7">
+      <c r="A10" s="2">
+        <v>43307</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-0.0074</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="18" spans="1:7">
+      <c r="A11" s="2">
         <v>43306</v>
       </c>
-      <c r="B9" s="3">
-        <v>-6.9999999999999999E-4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>43305</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.61E-2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>43304</v>
-      </c>
       <c r="B11" s="3">
-        <v>1.0699999999999999E-2</v>
+        <v>-0.0007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" ht="18" spans="1:5">
+      <c r="A12" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.0161</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:7">
       <c r="A13" s="2">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="B13" s="3">
-        <v>2.0500000000000001E-2</v>
+        <v>0.0107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>43300</v>
-      </c>
-      <c r="B14" s="3">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="14" ht="18" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43299</v>
+        <v>43301</v>
       </c>
       <c r="B15" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>0.0205</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" ht="18" spans="1:7">
       <c r="A16" s="2">
-        <v>43298</v>
+        <v>43300</v>
       </c>
       <c r="B16" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" ht="18" spans="1:7">
       <c r="A17" s="2">
-        <v>43297</v>
+        <v>43299</v>
       </c>
       <c r="B17" s="3">
-        <v>-6.1000000000000004E-3</v>
+        <v>-0.0039</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+    <row r="18" ht="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.0057</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" ht="18" spans="1:7">
       <c r="A19" s="2">
-        <v>43294</v>
+        <v>43297</v>
       </c>
       <c r="B19" s="3">
-        <v>2.3E-3</v>
+        <v>-0.0061</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>43293</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
+    <row r="20" ht="18" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43292</v>
+        <v>43294</v>
       </c>
       <c r="B21" s="3">
-        <v>-1.7600000000000001E-2</v>
+        <v>0.0023</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" ht="18" spans="1:7">
       <c r="A22" s="2">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="B22" s="3">
-        <v>4.4000000000000003E-3</v>
+        <v>0.0216</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" ht="18" spans="1:7">
       <c r="A23" s="2">
-        <v>43290</v>
+        <v>43292</v>
       </c>
       <c r="B23" s="3">
-        <v>2.47E-2</v>
+        <v>-0.0176</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E23" s="4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+    <row r="24" ht="18" spans="1:7">
+      <c r="A24" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.0044</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="G24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" ht="18" spans="1:7">
       <c r="A25" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" ht="18" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" ht="18" spans="1:7">
+      <c r="A27" s="2">
         <v>43287</v>
       </c>
-      <c r="B25" s="3">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="B27" s="3">
+        <v>0.0049</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="2:3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/git/helloworld/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20280" windowHeight="7935" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>日期</t>
   </si>
@@ -226,19 +238,55 @@
   </si>
   <si>
     <t>#1</t>
+  </si>
+  <si>
+    <t>西安自贸区、钛白粉、银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>草甘膦、高送转、共享单车</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>远期售汇业务风险准备金率从0调至20%</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'huo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>feng'xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhun'bei'jin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lv</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -262,8 +310,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -290,23 +339,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -317,14 +351,16 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -623,6 +659,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -655,26 +692,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="55.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:7">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:7">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -706,463 +742,490 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="18" spans="1:7">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43315</v>
+        <v>43318</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.01</v>
+        <v>-1.29E-2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="18" spans="1:7">
-      <c r="A4" s="2">
-        <v>43314</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="18" spans="1:7">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>43313</v>
+        <v>43315</v>
       </c>
       <c r="B5" s="3">
-        <v>-0.018</v>
+        <v>-0.01</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" ht="18" spans="1:7">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>43312</v>
+        <v>43314</v>
       </c>
       <c r="B6" s="3">
-        <v>0.0026</v>
+        <v>-0.02</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="18" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>43311</v>
+        <v>43313</v>
       </c>
       <c r="B7" s="3">
-        <v>-0.0016</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" ht="18" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" ht="18" spans="1:7">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43308</v>
+        <v>43311</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.003</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="2">
-        <v>43307</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-0.0074</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="18" spans="1:7">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
+        <v>43308</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43307</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>43306</v>
       </c>
-      <c r="B11" s="3">
-        <v>-0.0007</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B13" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" ht="18" spans="1:5">
-      <c r="A12" s="2">
-        <v>43305</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.0161</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" ht="18" spans="1:7">
-      <c r="A13" s="2">
-        <v>43304</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.0107</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" ht="18" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" ht="18" spans="1:7">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="B15" s="3">
-        <v>0.0205</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="18" spans="1:7">
-      <c r="A16" s="2">
-        <v>43300</v>
-      </c>
-      <c r="B16" s="3">
-        <v>-0.005</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" ht="18" spans="1:7">
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>43299</v>
+        <v>43301</v>
       </c>
       <c r="B17" s="3">
-        <v>-0.0039</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" ht="18" spans="1:7">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>43298</v>
+        <v>43300</v>
       </c>
       <c r="B18" s="3">
-        <v>-0.0057</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" ht="18" spans="1:7">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>43297</v>
+        <v>43299</v>
       </c>
       <c r="B19" s="3">
-        <v>-0.0061</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" ht="18" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="18" spans="1:7">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>43294</v>
+        <v>43297</v>
       </c>
       <c r="B21" s="3">
-        <v>0.0023</v>
+        <v>-6.1000000000000004E-3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" ht="18" spans="1:7">
-      <c r="A22" s="2">
-        <v>43293</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.0216</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>55</v>
-      </c>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" ht="18" spans="1:7">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>43292</v>
+        <v>43294</v>
       </c>
       <c r="B23" s="3">
-        <v>-0.0176</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" ht="18" spans="1:7">
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="B24" s="3">
-        <v>0.0044</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="18" spans="1:7">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>43290</v>
+        <v>43292</v>
       </c>
       <c r="B25" s="3">
-        <v>0.0247</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" ht="18" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" ht="18" spans="1:7">
+      <c r="G26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2.47E-2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>43287</v>
       </c>
-      <c r="B27" s="3">
-        <v>0.0049</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B29" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G29" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="2:3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/git/helloworld/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView windowWidth="20280" windowHeight="7935" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>日期</t>
   </si>
@@ -51,6 +39,21 @@
     <t>活跃概念</t>
   </si>
   <si>
+    <t>行业板块全线上涨，采掘服务、基础化学、水泥</t>
+  </si>
+  <si>
+    <t>1. 养老金基金获批。2. 成品油价格上涨</t>
+  </si>
+  <si>
+    <t>西安自贸区、钛白粉、银行</t>
+  </si>
+  <si>
+    <t>草甘膦、高送转、共享单车</t>
+  </si>
+  <si>
+    <t>远期售汇业务风险准备金率从0调至20%</t>
+  </si>
+  <si>
     <t>煤炭开采加工、农业服务、猪肉</t>
   </si>
   <si>
@@ -238,55 +241,19 @@
   </si>
   <si>
     <t>#1</t>
-  </si>
-  <si>
-    <t>西安自贸区、钛白粉、银行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>草甘膦、高送转、共享单车</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>远期售汇业务风险准备金率从0调至20%</t>
-    <rPh sb="0" eb="1">
-      <t>yuan'qi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou'huo</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hui'z</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>feng'xian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhun'bei'jin</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>lv</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>tiao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhi</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -310,9 +277,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -339,8 +305,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -351,16 +332,14 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -659,7 +638,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -692,25 +670,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="55.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" ht="18" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" ht="18" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -742,490 +721,506 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="B3" s="3">
-        <v>-1.29E-2</v>
+        <v>0.0274</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+    <row r="4" ht="18" spans="1:7">
+      <c r="A4" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-0.0129</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" ht="18" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" ht="18" spans="1:7">
       <c r="A6" s="2">
+        <v>43315</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" ht="18" spans="1:7">
+      <c r="A7" s="2">
         <v>43314</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>-0.02</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:7">
+      <c r="A8" s="2">
         <v>43313</v>
       </c>
-      <c r="B7" s="3">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>43312</v>
-      </c>
       <c r="B8" s="3">
-        <v>2.5999999999999999E-3</v>
+        <v>-0.018</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B9" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>0.0026</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+    <row r="10" ht="18" spans="1:7">
+      <c r="A10" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-0.0016</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" ht="18" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="18" spans="1:7">
+      <c r="A12" s="2">
         <v>43308</v>
       </c>
-      <c r="B11" s="3">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="B12" s="3">
+        <v>-0.003</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:7">
+      <c r="A13" s="2">
         <v>43307</v>
       </c>
-      <c r="B12" s="3">
-        <v>-7.4000000000000003E-3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>43306</v>
-      </c>
       <c r="B13" s="3">
-        <v>-6.9999999999999999E-4</v>
+        <v>-0.0074</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-0.0007</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" ht="18" spans="1:5">
+      <c r="A15" s="2">
         <v>43305</v>
       </c>
-      <c r="B14" s="3">
-        <v>1.61E-2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="B15" s="3">
+        <v>0.0161</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:7">
+      <c r="A16" s="2">
         <v>43304</v>
       </c>
-      <c r="B15" s="3">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="3">
+        <v>0.0107</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>39</v>
-      </c>
+    <row r="17" ht="18" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" ht="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B18" s="3">
-        <v>-5.0000000000000001E-3</v>
+        <v>0.0205</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" ht="18" spans="1:7">
       <c r="A19" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B19" s="3">
-        <v>-3.8999999999999998E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B20" s="3">
-        <v>-5.7000000000000002E-3</v>
+        <v>-0.0039</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-0.0057</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="18" spans="1:7">
+      <c r="A22" s="2">
         <v>43297</v>
       </c>
-      <c r="B21" s="3">
-        <v>-6.1000000000000004E-3</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="3">
+        <v>-0.0061</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>54</v>
-      </c>
+    <row r="23" ht="18" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" ht="18" spans="1:7">
       <c r="A24" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B24" s="3">
-        <v>2.1600000000000001E-2</v>
+        <v>0.0023</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" ht="18" spans="1:7">
       <c r="A25" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B25" s="3">
-        <v>-1.7600000000000001E-2</v>
+        <v>0.0216</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" ht="18" spans="1:7">
       <c r="A26" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-0.0176</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" ht="18" spans="1:7">
+      <c r="A27" s="2">
         <v>43291</v>
       </c>
-      <c r="B26" s="3">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="B27" s="3">
+        <v>0.0044</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" ht="18" spans="1:7">
+      <c r="A28" s="2">
         <v>43290</v>
       </c>
-      <c r="B27" s="3">
-        <v>2.47E-2</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="29" ht="18" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" ht="18" spans="1:7">
+      <c r="A30" s="2">
         <v>43287</v>
       </c>
-      <c r="B29" s="3">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="4"/>
+      <c r="B30" s="3">
+        <v>0.0049</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="2:3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>水泥、采掘服务、可燃冰</t>
+  </si>
+  <si>
+    <t>集成电路、次新股、芯片概念</t>
+  </si>
+  <si>
+    <t>1.美国将对160亿美元中国产品征收25%的额外关税。2.是上午公布的进出口贸易数据不理想</t>
   </si>
   <si>
     <t>行业板块全线上涨，采掘服务、基础化学、水泥</t>
@@ -253,7 +262,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -274,11 +283,6 @@
       <color indexed="8"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -309,19 +313,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -672,10 +676,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -723,34 +727,34 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0274</v>
+        <v>-0.0127</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" spans="1:7">
       <c r="A4" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="B4" s="3">
-        <v>-0.0129</v>
+        <v>0.0274</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -758,39 +762,39 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-0.0129</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
       <c r="A7" s="2">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="B7" s="3">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -801,35 +805,35 @@
       <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="B8" s="3">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B9" s="3">
-        <v>0.0026</v>
+        <v>-0.018</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
@@ -845,10 +849,10 @@
     </row>
     <row r="10" ht="18" spans="1:7">
       <c r="A10" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B10" s="3">
-        <v>-0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>25</v>
@@ -856,82 +860,82 @@
       <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-0.0016</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
-      <c r="A12" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-0.003</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
       <c r="A13" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.0074</v>
+        <v>-0.003</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B14" s="3">
-        <v>-0.0007</v>
+        <v>-0.0074</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" ht="18" spans="1:5">
+    <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B15" s="3">
-        <v>0.0161</v>
+        <v>-0.0007</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
@@ -942,13 +946,15 @@
       <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" ht="18" spans="1:7">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="18" spans="1:5">
       <c r="A16" s="2">
-        <v>43304</v>
+        <v>43305</v>
       </c>
       <c r="B16" s="3">
-        <v>0.0107</v>
+        <v>0.0161</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>39</v>
@@ -959,43 +965,41 @@
       <c r="E16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.0107</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:7">
       <c r="A19" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B19" s="3">
-        <v>-0.005</v>
+        <v>0.0205</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>45</v>
@@ -1011,10 +1015,10 @@
     </row>
     <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B20" s="3">
-        <v>-0.0039</v>
+        <v>-0.005</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>48</v>
@@ -1030,10 +1034,10 @@
     </row>
     <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.0057</v>
+        <v>-0.0039</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>51</v>
@@ -1049,10 +1053,10 @@
     </row>
     <row r="22" ht="18" spans="1:7">
       <c r="A22" s="2">
-        <v>43297</v>
+        <v>43298</v>
       </c>
       <c r="B22" s="3">
-        <v>-0.0061</v>
+        <v>-0.0057</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>54</v>
@@ -1063,67 +1067,67 @@
       <c r="E22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" ht="18" spans="1:7">
+      <c r="A23" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-0.0061</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" ht="18" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="18" spans="1:7">
-      <c r="A24" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.0023</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:7">
       <c r="A25" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B25" s="3">
-        <v>0.0216</v>
+        <v>0.0023</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="D25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" ht="18" spans="1:7">
       <c r="A26" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B26" s="3">
-        <v>-0.0176</v>
+        <v>0.0216</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
         <v>64</v>
       </c>
@@ -1132,10 +1136,10 @@
     </row>
     <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B27" s="3">
-        <v>0.0044</v>
+        <v>-0.0176</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>65</v>
@@ -1147,56 +1151,75 @@
         <v>67</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" ht="18" spans="1:7">
       <c r="A28" s="2">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="B28" s="3">
-        <v>0.0247</v>
+        <v>0.0044</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" ht="18" spans="1:7">
-      <c r="A30" s="2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" ht="18" spans="1:7">
+      <c r="A31" s="2">
         <v>43287</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>日期</t>
   </si>
@@ -39,6 +39,27 @@
     <t>活跃概念</t>
   </si>
   <si>
+    <t>国产软件、5G、高送转</t>
+  </si>
+  <si>
+    <t>啤酒、银行、租售同权</t>
+  </si>
+  <si>
+    <t>1. 央行保持中性货币政策。2.土耳其货币大跌触发股市大跌</t>
+  </si>
+  <si>
+    <t>军工、银行、酿酒</t>
+  </si>
+  <si>
+    <t>钢铁、煤炭、有色、环保</t>
+  </si>
+  <si>
+    <t>国产软件、芯片、网络安全</t>
+  </si>
+  <si>
+    <t>1.国家科技领导小组成立</t>
+  </si>
+  <si>
     <t>水泥、采掘服务、可燃冰</t>
   </si>
   <si>
@@ -48,7 +69,7 @@
     <t>1.美国将对160亿美元中国产品征收25%的额外关税。2.是上午公布的进出口贸易数据不理想</t>
   </si>
   <si>
-    <t>行业板块全线上涨，采掘服务、基础化学、水泥</t>
+    <t>石油采掘服务、基础化学、水泥</t>
   </si>
   <si>
     <t>1. 养老金基金获批。2. 成品油价格上涨</t>
@@ -676,10 +697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -727,10 +748,10 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43320</v>
+        <v>43325</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.0127</v>
+        <v>-0.0034</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -745,481 +766,543 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" spans="1:7">
-      <c r="A4" s="2">
-        <v>43319</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.0274</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:7">
       <c r="A5" s="2">
-        <v>43318</v>
+        <v>43322</v>
       </c>
       <c r="B5" s="3">
-        <v>-0.0129</v>
+        <v>0.0003</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.0183</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
       <c r="A7" s="2">
-        <v>43315</v>
+        <v>43320</v>
       </c>
       <c r="B7" s="3">
-        <v>-0.01</v>
+        <v>-0.0127</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43314</v>
+        <v>43319</v>
       </c>
       <c r="B8" s="3">
-        <v>-0.02</v>
+        <v>0.0274</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43313</v>
+        <v>43318</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.018</v>
+        <v>-0.0129</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="2">
-        <v>43312</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.0026</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
       <c r="A11" s="2">
-        <v>43311</v>
+        <v>43315</v>
       </c>
       <c r="B11" s="3">
-        <v>-0.0016</v>
+        <v>-0.01</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="2">
+        <v>43314</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" ht="18" spans="1:7">
       <c r="A13" s="2">
-        <v>43308</v>
+        <v>43313</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.003</v>
+        <v>-0.018</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43307</v>
+        <v>43312</v>
       </c>
       <c r="B14" s="3">
-        <v>-0.0074</v>
+        <v>0.0026</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43306</v>
+        <v>43311</v>
       </c>
       <c r="B15" s="3">
-        <v>-0.0007</v>
+        <v>-0.0016</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" ht="18" spans="1:5">
-      <c r="A16" s="2">
-        <v>43305</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.0161</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>41</v>
-      </c>
+    <row r="16" ht="18" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
       <c r="A17" s="2">
-        <v>43304</v>
+        <v>43308</v>
       </c>
       <c r="B17" s="3">
-        <v>0.0107</v>
+        <v>-0.003</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>43307</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.0074</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" ht="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:7">
       <c r="A19" s="2">
-        <v>43301</v>
+        <v>43306</v>
       </c>
       <c r="B19" s="3">
-        <v>0.0205</v>
+        <v>-0.0007</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" ht="18" spans="1:7">
+    <row r="20" ht="18" spans="1:5">
       <c r="A20" s="2">
-        <v>43300</v>
+        <v>43305</v>
       </c>
       <c r="B20" s="3">
-        <v>-0.005</v>
+        <v>0.0161</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
     </row>
     <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43299</v>
+        <v>43304</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.0039</v>
+        <v>0.0107</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" ht="18" spans="1:7">
-      <c r="A22" s="2">
-        <v>43298</v>
-      </c>
-      <c r="B22" s="3">
-        <v>-0.0057</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" ht="18" spans="1:7">
       <c r="A23" s="2">
-        <v>43297</v>
+        <v>43301</v>
       </c>
       <c r="B23" s="3">
-        <v>-0.0061</v>
+        <v>0.0205</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" ht="18" spans="1:7">
+      <c r="A24" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B24" s="3">
+        <v>-0.005</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" ht="18" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:7">
       <c r="A25" s="2">
-        <v>43294</v>
+        <v>43299</v>
       </c>
       <c r="B25" s="3">
-        <v>0.0023</v>
+        <v>-0.0039</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" ht="18" spans="1:7">
       <c r="A26" s="2">
-        <v>43293</v>
+        <v>43298</v>
       </c>
       <c r="B26" s="3">
-        <v>0.0216</v>
+        <v>-0.0057</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43292</v>
+        <v>43297</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.0176</v>
+        <v>-0.0061</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" ht="18" spans="1:7">
-      <c r="A28" s="2">
-        <v>43291</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.0044</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2">
-        <v>43290</v>
+        <v>43294</v>
       </c>
       <c r="B29" s="3">
-        <v>0.0247</v>
+        <v>0.0023</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" ht="18" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="2">
+        <v>43293</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.0216</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" ht="18" spans="1:7">
       <c r="A31" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B31" s="3">
+        <v>-0.0176</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" ht="18" spans="1:7">
+      <c r="A32" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.0044</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="18" spans="1:7">
+      <c r="A33" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" ht="18" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" ht="18" spans="1:7">
+      <c r="A35" s="2">
         <v>43287</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B35" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>采掘服务、粤港澳大湾区、燃气水务</t>
+  </si>
+  <si>
+    <t>钢铁、集成电路、芯片概念</t>
+  </si>
+  <si>
+    <t>1.粤港澳大湾区建设领导小组将开首次会议 韩正任组长. 2. 两部委通知: 禁止水泥，平板玻璃行业增加产能</t>
   </si>
   <si>
     <t>国产软件、5G、高送转</t>
@@ -697,10 +706,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -748,10 +757,10 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.0034</v>
+        <v>-0.0018</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -766,61 +775,61 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-0.0034</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:7">
-      <c r="A5" s="2">
-        <v>43322</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.0003</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
       <c r="A6" s="2">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="B6" s="3">
-        <v>0.0183</v>
+        <v>0.0003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
       <c r="A7" s="2">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="B7" s="3">
-        <v>-0.0127</v>
+        <v>0.0183</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
@@ -829,34 +838,34 @@
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="B8" s="3">
-        <v>0.0274</v>
+        <v>-0.0127</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.0129</v>
+        <v>0.0274</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -864,39 +873,39 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-0.0129</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
-      <c r="A11" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B11" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
       <c r="A12" s="2">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="B12" s="3">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>25</v>
@@ -907,35 +916,35 @@
       <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
       <c r="A13" s="2">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B14" s="3">
-        <v>0.0026</v>
+        <v>-0.018</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>32</v>
@@ -951,10 +960,10 @@
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B15" s="3">
-        <v>-0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>35</v>
@@ -962,82 +971,82 @@
       <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" ht="18" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-0.0016</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
-      <c r="A17" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-0.003</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B18" s="3">
-        <v>-0.0074</v>
+        <v>-0.003</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" ht="18" spans="1:7">
       <c r="A19" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B19" s="3">
-        <v>-0.0007</v>
+        <v>-0.0074</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" ht="18" spans="1:5">
+    <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B20" s="3">
-        <v>0.0161</v>
+        <v>-0.0007</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>46</v>
@@ -1048,13 +1057,15 @@
       <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" ht="18" spans="1:7">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" ht="18" spans="1:5">
       <c r="A21" s="2">
-        <v>43304</v>
+        <v>43305</v>
       </c>
       <c r="B21" s="3">
-        <v>0.0107</v>
+        <v>0.0161</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>49</v>
@@ -1065,43 +1076,41 @@
       <c r="E21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
     </row>
     <row r="22" ht="18" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.0107</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" ht="18" spans="1:7">
-      <c r="A23" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="18" spans="1:7">
       <c r="A24" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B24" s="3">
-        <v>-0.005</v>
+        <v>0.0205</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>55</v>
@@ -1117,10 +1126,10 @@
     </row>
     <row r="25" ht="18" spans="1:7">
       <c r="A25" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B25" s="3">
-        <v>-0.0039</v>
+        <v>-0.005</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>58</v>
@@ -1136,10 +1145,10 @@
     </row>
     <row r="26" ht="18" spans="1:7">
       <c r="A26" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B26" s="3">
-        <v>-0.0057</v>
+        <v>-0.0039</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>61</v>
@@ -1155,10 +1164,10 @@
     </row>
     <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43297</v>
+        <v>43298</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.0061</v>
+        <v>-0.0057</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>64</v>
@@ -1169,67 +1178,67 @@
       <c r="E27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" ht="18" spans="1:7">
+      <c r="A28" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B28" s="3">
+        <v>-0.0061</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" ht="18" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.0023</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" ht="18" spans="1:7">
       <c r="A30" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B30" s="3">
-        <v>0.0216</v>
+        <v>0.0023</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="D30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" ht="18" spans="1:7">
       <c r="A31" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B31" s="3">
-        <v>-0.0176</v>
+        <v>0.0216</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
         <v>74</v>
       </c>
@@ -1238,10 +1247,10 @@
     </row>
     <row r="32" ht="18" spans="1:7">
       <c r="A32" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B32" s="3">
-        <v>0.0044</v>
+        <v>-0.0176</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>75</v>
@@ -1253,56 +1262,75 @@
         <v>77</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" ht="18" spans="1:7">
       <c r="A33" s="2">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="B33" s="3">
-        <v>0.0247</v>
+        <v>0.0044</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="34" ht="18" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" ht="18" spans="1:7">
-      <c r="A35" s="2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" ht="18" spans="1:7">
+      <c r="A36" s="2">
         <v>43287</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>啤酒、水泥、在线旅游、白酒、草甘膦、互联网保险</t>
+  </si>
+  <si>
+    <t>1. RMB贬值突破6.9。2.港股大跌</t>
   </si>
   <si>
     <t>采掘服务、粤港澳大湾区、燃气水务</t>
@@ -706,10 +712,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -757,115 +763,115 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.0018</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>-0.0207</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" spans="1:7">
       <c r="A4" s="2">
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="B4" s="3">
-        <v>-0.0034</v>
+        <v>-0.0018</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-0.0034</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="2">
-        <v>43322</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.0003</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
       <c r="A7" s="2">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="B7" s="3">
-        <v>0.0183</v>
+        <v>0.0003</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="B8" s="3">
-        <v>-0.0127</v>
+        <v>0.0183</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="B9" s="3">
-        <v>0.0274</v>
+        <v>-0.0127</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
@@ -874,179 +880,179 @@
     </row>
     <row r="10" ht="18" spans="1:7">
       <c r="A10" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="B10" s="3">
-        <v>-0.0129</v>
+        <v>0.0274</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-0.0129</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
-      <c r="A12" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
       <c r="A13" s="2">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="B14" s="3">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B15" s="3">
-        <v>0.0026</v>
+        <v>-0.018</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" ht="18" spans="1:7">
       <c r="A16" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B16" s="3">
-        <v>-0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-0.0016</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-0.003</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:7">
       <c r="A19" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B19" s="3">
-        <v>-0.0074</v>
+        <v>-0.003</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B20" s="3">
-        <v>-0.0007</v>
+        <v>-0.0074</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>46</v>
@@ -1054,283 +1060,300 @@
       <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" ht="18" spans="1:5">
+    <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-0.0007</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="18" spans="1:5">
+      <c r="A22" s="2">
         <v>43305</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>0.0161</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" ht="18" spans="1:7">
-      <c r="A22" s="2">
+      <c r="D22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="1:7">
+      <c r="A23" s="2">
         <v>43304</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>0.0107</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" ht="18" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="18" spans="1:7">
-      <c r="A24" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:7">
       <c r="A25" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B25" s="3">
-        <v>-0.005</v>
+        <v>0.0205</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" ht="18" spans="1:7">
       <c r="A26" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B26" s="3">
-        <v>-0.0039</v>
+        <v>-0.005</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.0057</v>
+        <v>-0.0039</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" ht="18" spans="1:7">
       <c r="A28" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B28" s="3">
+        <v>-0.0057</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" ht="18" spans="1:7">
+      <c r="A29" s="2">
         <v>43297</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>-0.0061</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" ht="18" spans="1:7">
-      <c r="A30" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.0023</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" ht="18" spans="1:7">
       <c r="A31" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B31" s="3">
-        <v>0.0216</v>
+        <v>0.0023</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" ht="18" spans="1:7">
       <c r="A32" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B32" s="3">
-        <v>-0.0176</v>
+        <v>0.0216</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" ht="18" spans="1:7">
       <c r="A33" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B33" s="3">
-        <v>0.0044</v>
+        <v>-0.0176</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" ht="18" spans="1:7">
       <c r="A34" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.0044</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" ht="18" spans="1:7">
+      <c r="A35" s="2">
         <v>43290</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3">
         <v>0.0247</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" ht="18" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" ht="18" spans="1:7">
-      <c r="A36" s="2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" ht="18" spans="1:7">
+      <c r="A37" s="2">
         <v>43287</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>日期</t>
   </si>
@@ -39,10 +39,22 @@
     <t>活跃概念</t>
   </si>
   <si>
+    <t>天津自贸区、券商、二胎概念</t>
+  </si>
+  <si>
+    <t>猪肉、高送转、自由贸易港</t>
+  </si>
+  <si>
+    <t>1.外国人开设A股账户落地。2. 离岸人民币突破6.95</t>
+  </si>
+  <si>
     <t>啤酒、水泥、在线旅游、白酒、草甘膦、互联网保险</t>
   </si>
   <si>
     <t>1. RMB贬值突破6.9。2.港股大跌</t>
+  </si>
+  <si>
+    <t>旅游，科技，宁夏，基建</t>
   </si>
   <si>
     <t>采掘服务、粤港澳大湾区、燃气水务</t>
@@ -712,10 +724,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -763,31 +775,31 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.0207</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>-0.0066</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" spans="1:7">
       <c r="A4" s="2">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="B4" s="3">
-        <v>-0.0018</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>-0.0207</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
@@ -795,179 +807,180 @@
         <v>11</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" ht="18" spans="1:7">
       <c r="A5" s="2">
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="B5" s="3">
-        <v>-0.0034</v>
+        <v>-0.0018</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-0.0034</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
-      <c r="A7" s="2">
-        <v>43322</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.0003</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="B8" s="3">
-        <v>0.0183</v>
+        <v>0.0003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.0127</v>
+        <v>0.0183</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
       <c r="A10" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="B10" s="3">
-        <v>0.0274</v>
+        <v>-0.0127</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
       <c r="A11" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="B11" s="3">
-        <v>-0.0129</v>
+        <v>0.0274</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-0.0129</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
-      <c r="A13" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B13" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="B14" s="3">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="B15" s="3">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>34</v>
@@ -978,81 +991,80 @@
       <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" ht="18" spans="1:7">
       <c r="A16" s="2">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B16" s="3">
-        <v>0.0026</v>
+        <v>-0.018</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
       <c r="A17" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B17" s="3">
-        <v>-0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.0016</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:7">
-      <c r="A19" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B19" s="3">
-        <v>-0.003</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B20" s="3">
-        <v>-0.0074</v>
+        <v>-0.003</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>46</v>
@@ -1060,300 +1072,321 @@
       <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.0007</v>
+        <v>-0.0074</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" ht="18" spans="1:5">
+    <row r="22" ht="18" spans="1:7">
       <c r="A22" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-0.0007</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" ht="18" spans="1:5">
+      <c r="A23" s="2">
         <v>43305</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>0.0161</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="18" spans="1:7">
-      <c r="A23" s="2">
+      <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="18" spans="1:7">
+      <c r="A24" s="2">
         <v>43304</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>0.0107</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" ht="18" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:7">
-      <c r="A25" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" ht="18" spans="1:7">
       <c r="A26" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B26" s="3">
-        <v>-0.005</v>
+        <v>0.0205</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.0039</v>
+        <v>-0.005</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" ht="18" spans="1:7">
       <c r="A28" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B28" s="3">
-        <v>-0.0057</v>
+        <v>-0.0039</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B29" s="3">
+        <v>-0.0057</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" ht="18" spans="1:7">
+      <c r="A30" s="2">
         <v>43297</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>-0.0061</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" ht="18" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" ht="18" spans="1:7">
-      <c r="A31" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.0023</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" ht="18" spans="1:7">
       <c r="A32" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B32" s="3">
-        <v>0.0216</v>
+        <v>0.0023</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" ht="18" spans="1:7">
       <c r="A33" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B33" s="3">
-        <v>-0.0176</v>
+        <v>0.0216</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" ht="18" spans="1:7">
       <c r="A34" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B34" s="3">
-        <v>0.0044</v>
+        <v>-0.0176</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" ht="18" spans="1:7">
       <c r="A35" s="2">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="B35" s="3">
-        <v>0.0247</v>
+        <v>0.0044</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E35" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" ht="18" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" ht="18" spans="1:7">
-      <c r="A37" s="2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" ht="18" spans="1:7">
+      <c r="A38" s="2">
         <v>43287</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>通信设备、高送转、租售同权、钢铁、券商</t>
+  </si>
+  <si>
+    <t>二胎、猪肉、乳业、服装家纺、物流、环保</t>
+  </si>
+  <si>
+    <t>科技股领涨</t>
+  </si>
+  <si>
+    <t>通信、金融、天津自贸</t>
+  </si>
+  <si>
+    <t>农业、医药</t>
   </si>
   <si>
     <t>天津自贸区、券商、二胎概念</t>
@@ -307,8 +322,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -724,10 +739,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -775,10 +790,10 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43328</v>
+        <v>43332</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.0066</v>
+        <v>0.0111</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -793,278 +808,278 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" spans="1:7">
-      <c r="A4" s="2">
-        <v>43327</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-0.0207</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:7">
       <c r="A5" s="2">
-        <v>43326</v>
+        <v>43329</v>
       </c>
       <c r="B5" s="3">
-        <v>-0.0018</v>
+        <v>-0.0134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
       <c r="A6" s="2">
-        <v>43325</v>
+        <v>43328</v>
       </c>
       <c r="B6" s="3">
-        <v>-0.0034</v>
+        <v>-0.0066</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-0.0207</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43322</v>
+        <v>43326</v>
       </c>
       <c r="B8" s="3">
-        <v>0.0003</v>
+        <v>-0.0018</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43321</v>
+        <v>43325</v>
       </c>
       <c r="B9" s="3">
-        <v>0.0183</v>
+        <v>-0.0034</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="2">
-        <v>43320</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-0.0127</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
       <c r="A11" s="2">
-        <v>43319</v>
+        <v>43322</v>
       </c>
       <c r="B11" s="3">
-        <v>0.0274</v>
+        <v>0.0003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
       <c r="A12" s="2">
-        <v>43318</v>
+        <v>43321</v>
       </c>
       <c r="B12" s="3">
-        <v>-0.0129</v>
+        <v>0.0183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="2">
+        <v>43320</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-0.0127</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43315</v>
+        <v>43319</v>
       </c>
       <c r="B14" s="3">
-        <v>-0.01</v>
+        <v>0.0274</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43314</v>
+        <v>43318</v>
       </c>
       <c r="B15" s="3">
-        <v>-0.02</v>
+        <v>-0.0129</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" ht="18" spans="1:7">
-      <c r="A16" s="2">
-        <v>43313</v>
-      </c>
-      <c r="B16" s="3">
-        <v>-0.018</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
       <c r="A17" s="2">
-        <v>43312</v>
+        <v>43315</v>
       </c>
       <c r="B17" s="3">
-        <v>0.0026</v>
+        <v>-0.01</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43311</v>
+        <v>43314</v>
       </c>
       <c r="B18" s="3">
-        <v>-0.0016</v>
+        <v>-0.02</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:7">
+      <c r="A19" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-0.018</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" ht="18" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
-        <v>43308</v>
+        <v>43312</v>
       </c>
       <c r="B20" s="3">
-        <v>-0.003</v>
+        <v>0.0026</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>46</v>
@@ -1076,317 +1091,362 @@
         <v>48</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43307</v>
+        <v>43311</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.0074</v>
+        <v>-0.0016</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" ht="18" spans="1:7">
-      <c r="A22" s="2">
-        <v>43306</v>
-      </c>
-      <c r="B22" s="3">
-        <v>-0.0007</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" ht="18" spans="1:5">
+    <row r="23" ht="18" spans="1:7">
       <c r="A23" s="2">
-        <v>43305</v>
+        <v>43308</v>
       </c>
       <c r="B23" s="3">
-        <v>0.0161</v>
+        <v>-0.003</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:7">
       <c r="A24" s="2">
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="B24" s="3">
-        <v>0.0107</v>
+        <v>-0.0074</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-0.0007</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" ht="18" spans="1:7">
+    <row r="26" ht="18" spans="1:5">
       <c r="A26" s="2">
-        <v>43301</v>
+        <v>43305</v>
       </c>
       <c r="B26" s="3">
-        <v>0.0205</v>
+        <v>0.0161</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43300</v>
+        <v>43304</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.005</v>
+        <v>0.0107</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" ht="18" spans="1:7">
-      <c r="A28" s="2">
-        <v>43299</v>
-      </c>
-      <c r="B28" s="3">
-        <v>-0.0039</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2">
-        <v>43298</v>
+        <v>43301</v>
       </c>
       <c r="B29" s="3">
-        <v>-0.0057</v>
+        <v>0.0205</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" ht="18" spans="1:7">
       <c r="A30" s="2">
-        <v>43297</v>
+        <v>43300</v>
       </c>
       <c r="B30" s="3">
-        <v>-0.0061</v>
+        <v>-0.005</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" ht="18" spans="1:7">
+      <c r="A31" s="2">
+        <v>43299</v>
+      </c>
+      <c r="B31" s="3">
+        <v>-0.0039</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" ht="18" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" ht="18" spans="1:7">
       <c r="A32" s="2">
-        <v>43294</v>
+        <v>43298</v>
       </c>
       <c r="B32" s="3">
-        <v>0.0023</v>
+        <v>-0.0057</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" ht="18" spans="1:7">
       <c r="A33" s="2">
-        <v>43293</v>
+        <v>43297</v>
       </c>
       <c r="B33" s="3">
-        <v>0.0216</v>
+        <v>-0.0061</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" ht="18" spans="1:7">
-      <c r="A34" s="2">
-        <v>43292</v>
-      </c>
-      <c r="B34" s="3">
-        <v>-0.0176</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" ht="18" spans="1:7">
       <c r="A35" s="2">
-        <v>43291</v>
+        <v>43294</v>
       </c>
       <c r="B35" s="3">
-        <v>0.0044</v>
+        <v>0.0023</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" ht="18" spans="1:7">
       <c r="A36" s="2">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="B36" s="3">
-        <v>0.0247</v>
+        <v>0.0216</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" ht="18" spans="1:7">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B37" s="3">
+        <v>-0.0176</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" ht="18" spans="1:7">
       <c r="A38" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.0044</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="1:7">
+      <c r="A39" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" ht="18" spans="1:7">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" ht="18" spans="1:7">
+      <c r="A41" s="2">
         <v>43287</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B41" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>机场航运、造纸、医药电商、白酒、ST、家电</t>
+  </si>
+  <si>
+    <t>钢铁</t>
+  </si>
+  <si>
+    <t>1. 纸涨价。2.决定实行地方债公开承销制度</t>
   </si>
   <si>
     <t>通信设备、高送转、租售同权、钢铁、券商</t>
@@ -322,8 +331,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -739,10 +748,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -790,10 +799,10 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0111</v>
+        <v>0.0131</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -808,94 +817,94 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="18" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="2">
+        <v>43332</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.0111</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:7">
-      <c r="A5" s="2">
-        <v>43329</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-0.0134</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
       <c r="A6" s="2">
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="B6" s="3">
-        <v>-0.0066</v>
+        <v>-0.0134</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
       <c r="A7" s="2">
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="B7" s="3">
-        <v>-0.0207</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>-0.0066</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="B8" s="3">
-        <v>-0.0018</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>-0.0207</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.0034</v>
+        <v>-0.0018</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
@@ -910,61 +919,61 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-0.0034</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
-      <c r="A11" s="2">
-        <v>43322</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.0003</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
       <c r="A12" s="2">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="B12" s="3">
-        <v>0.0183</v>
+        <v>0.0003</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
       <c r="A13" s="2">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.0127</v>
+        <v>0.0183</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
@@ -973,34 +982,34 @@
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="B14" s="3">
-        <v>0.0274</v>
+        <v>-0.0127</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="B15" s="3">
-        <v>-0.0129</v>
+        <v>0.0274</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1008,39 +1017,39 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" ht="18" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-0.0129</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
-      <c r="A17" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="B18" s="3">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>39</v>
@@ -1051,35 +1060,35 @@
       <c r="E18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:7">
       <c r="A19" s="2">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="B19" s="3">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B20" s="3">
-        <v>0.0026</v>
+        <v>-0.018</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>46</v>
@@ -1095,10 +1104,10 @@
     </row>
     <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>49</v>
@@ -1106,82 +1115,82 @@
       <c r="D21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" ht="18" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-0.0016</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" ht="18" spans="1:7">
-      <c r="A23" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B23" s="3">
-        <v>-0.003</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" ht="18" spans="1:7">
       <c r="A24" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B24" s="3">
-        <v>-0.0074</v>
+        <v>-0.003</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" ht="18" spans="1:7">
       <c r="A25" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B25" s="3">
-        <v>-0.0007</v>
+        <v>-0.0074</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" ht="18" spans="1:5">
+    <row r="26" ht="18" spans="1:7">
       <c r="A26" s="2">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B26" s="3">
-        <v>0.0161</v>
+        <v>-0.0007</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>60</v>
@@ -1192,13 +1201,15 @@
       <c r="E26" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" ht="18" spans="1:7">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" ht="18" spans="1:5">
       <c r="A27" s="2">
-        <v>43304</v>
+        <v>43305</v>
       </c>
       <c r="B27" s="3">
-        <v>0.0107</v>
+        <v>0.0161</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>63</v>
@@ -1209,43 +1220,41 @@
       <c r="E27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
     </row>
     <row r="28" ht="18" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.0107</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" ht="18" spans="1:7">
       <c r="A30" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B30" s="3">
-        <v>-0.005</v>
+        <v>0.0205</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>69</v>
@@ -1261,10 +1270,10 @@
     </row>
     <row r="31" ht="18" spans="1:7">
       <c r="A31" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B31" s="3">
-        <v>-0.0039</v>
+        <v>-0.005</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>72</v>
@@ -1280,10 +1289,10 @@
     </row>
     <row r="32" ht="18" spans="1:7">
       <c r="A32" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B32" s="3">
-        <v>-0.0057</v>
+        <v>-0.0039</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>75</v>
@@ -1299,10 +1308,10 @@
     </row>
     <row r="33" ht="18" spans="1:7">
       <c r="A33" s="2">
-        <v>43297</v>
+        <v>43298</v>
       </c>
       <c r="B33" s="3">
-        <v>-0.0061</v>
+        <v>-0.0057</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>78</v>
@@ -1313,67 +1322,67 @@
       <c r="E33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" ht="18" spans="1:7">
+      <c r="A34" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B34" s="3">
+        <v>-0.0061</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" ht="18" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" ht="18" spans="1:7">
-      <c r="A35" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.0023</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" ht="18" spans="1:7">
       <c r="A36" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B36" s="3">
-        <v>0.0216</v>
+        <v>0.0023</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" ht="18" spans="1:7">
       <c r="A37" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B37" s="3">
-        <v>-0.0176</v>
+        <v>0.0216</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>88</v>
       </c>
@@ -1382,10 +1391,10 @@
     </row>
     <row r="38" ht="18" spans="1:7">
       <c r="A38" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B38" s="3">
-        <v>0.0044</v>
+        <v>-0.0176</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>89</v>
@@ -1397,56 +1406,75 @@
         <v>91</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" ht="18" spans="1:7">
       <c r="A39" s="2">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="B39" s="3">
-        <v>0.0247</v>
+        <v>0.0044</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40" ht="18" spans="1:7">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" ht="18" spans="1:7">
-      <c r="A41" s="2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" ht="18" spans="1:7">
+      <c r="A42" s="2">
         <v>43287</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20280" windowHeight="7935" tabRatio="500"/>
+    <workbookView windowWidth="20310" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>公交、种植业与林业、煤炭、农产品加工</t>
+  </si>
+  <si>
+    <t>高送转、5G、环保、饮料制造、养殖业、有色</t>
+  </si>
+  <si>
+    <t>1. 限制数字币。2.稳健货币政策</t>
   </si>
   <si>
     <t>机场航运、造纸、医药电商、白酒、ST、家电</t>
@@ -748,7 +757,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -799,10 +808,10 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0131</v>
+        <v>-0.007</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -818,10 +827,10 @@
     </row>
     <row r="4" ht="18" spans="1:7">
       <c r="A4" s="2">
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="B4" s="3">
-        <v>0.0111</v>
+        <v>0.0131</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -836,94 +845,94 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="2">
+        <v>43332</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.0111</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="2">
-        <v>43329</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-0.0134</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
       <c r="A7" s="2">
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="B7" s="3">
-        <v>-0.0066</v>
+        <v>-0.0134</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="B8" s="3">
-        <v>-0.0207</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>-0.0066</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.0018</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>-0.0207</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
       <c r="A10" s="2">
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="B10" s="3">
-        <v>-0.0034</v>
+        <v>-0.0018</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
@@ -938,61 +947,61 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-0.0034</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
-      <c r="A12" s="2">
-        <v>43322</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.0003</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
       <c r="A13" s="2">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="B13" s="3">
-        <v>0.0183</v>
+        <v>0.0003</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="B14" s="3">
-        <v>-0.0127</v>
+        <v>0.0183</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1001,34 +1010,34 @@
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="B15" s="3">
-        <v>0.0274</v>
+        <v>-0.0127</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" ht="18" spans="1:7">
       <c r="A16" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="B16" s="3">
-        <v>-0.0129</v>
+        <v>0.0274</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>38</v>
       </c>
@@ -1036,39 +1045,39 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-0.0129</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:7">
       <c r="A19" s="2">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="B19" s="3">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>42</v>
@@ -1079,35 +1088,35 @@
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="B20" s="3">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
     </row>
     <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B21" s="3">
-        <v>0.0026</v>
+        <v>-0.018</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>49</v>
@@ -1123,10 +1132,10 @@
     </row>
     <row r="22" ht="18" spans="1:7">
       <c r="A22" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B22" s="3">
-        <v>-0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>52</v>
@@ -1134,82 +1143,82 @@
       <c r="D22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" ht="18" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-0.0016</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="18" spans="1:7">
-      <c r="A24" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B24" s="3">
-        <v>-0.003</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:7">
       <c r="A25" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B25" s="3">
-        <v>-0.0074</v>
+        <v>-0.003</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" ht="18" spans="1:7">
       <c r="A26" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B26" s="3">
-        <v>-0.0007</v>
+        <v>-0.0074</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" ht="18" spans="1:5">
+    <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B27" s="3">
-        <v>0.0161</v>
+        <v>-0.0007</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>63</v>
@@ -1220,13 +1229,15 @@
       <c r="E27" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" ht="18" spans="1:7">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" ht="18" spans="1:5">
       <c r="A28" s="2">
-        <v>43304</v>
+        <v>43305</v>
       </c>
       <c r="B28" s="3">
-        <v>0.0107</v>
+        <v>0.0161</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>66</v>
@@ -1237,43 +1248,41 @@
       <c r="E28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
     </row>
     <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.0107</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" ht="18" spans="1:7">
-      <c r="A30" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" ht="18" spans="1:7">
       <c r="A31" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B31" s="3">
-        <v>-0.005</v>
+        <v>0.0205</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>72</v>
@@ -1289,10 +1298,10 @@
     </row>
     <row r="32" ht="18" spans="1:7">
       <c r="A32" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B32" s="3">
-        <v>-0.0039</v>
+        <v>-0.005</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>75</v>
@@ -1308,10 +1317,10 @@
     </row>
     <row r="33" ht="18" spans="1:7">
       <c r="A33" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B33" s="3">
-        <v>-0.0057</v>
+        <v>-0.0039</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>78</v>
@@ -1327,10 +1336,10 @@
     </row>
     <row r="34" ht="18" spans="1:7">
       <c r="A34" s="2">
-        <v>43297</v>
+        <v>43298</v>
       </c>
       <c r="B34" s="3">
-        <v>-0.0061</v>
+        <v>-0.0057</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>81</v>
@@ -1341,67 +1350,67 @@
       <c r="E34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" ht="18" spans="1:7">
+      <c r="A35" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-0.0061</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" ht="18" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" ht="18" spans="1:7">
-      <c r="A36" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.0023</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" ht="18" spans="1:7">
       <c r="A37" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B37" s="3">
-        <v>0.0216</v>
+        <v>0.0023</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="D37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" ht="18" spans="1:7">
       <c r="A38" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B38" s="3">
-        <v>-0.0176</v>
+        <v>0.0216</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>91</v>
       </c>
@@ -1410,10 +1419,10 @@
     </row>
     <row r="39" ht="18" spans="1:7">
       <c r="A39" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B39" s="3">
-        <v>0.0044</v>
+        <v>-0.0176</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>92</v>
@@ -1425,56 +1434,75 @@
         <v>94</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" ht="18" spans="1:7">
       <c r="A40" s="2">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="B40" s="3">
-        <v>0.0247</v>
+        <v>0.0044</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="41" ht="18" spans="1:7">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" ht="18" spans="1:7">
-      <c r="A42" s="2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" ht="18" spans="1:7">
+      <c r="A43" s="2">
         <v>43287</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B43" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>农业服务、燃料乙醇、国产软件、通信设备、5G、次新股、半导体</t>
+  </si>
+  <si>
+    <t>煤炭、种植业、钢铁、水泥、可燃冰、有色金属</t>
+  </si>
+  <si>
+    <t>1.对华160亿美元产品加征关税今日生效. 2. 租房市场受自媒体关注</t>
   </si>
   <si>
     <t>公交、种植业与林业、煤炭、农产品加工</t>
@@ -757,7 +766,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -808,10 +817,10 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.007</v>
+        <v>0.0037</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -827,10 +836,10 @@
     </row>
     <row r="4" ht="18" spans="1:7">
       <c r="A4" s="2">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="B4" s="3">
-        <v>0.0131</v>
+        <v>-0.007</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -846,10 +855,10 @@
     </row>
     <row r="5" ht="18" spans="1:7">
       <c r="A5" s="2">
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="B5" s="3">
-        <v>0.0111</v>
+        <v>0.0131</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -864,94 +873,94 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="2">
+        <v>43332</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.0111</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
-      <c r="A7" s="2">
-        <v>43329</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-0.0134</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
       <c r="A8" s="2">
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="B8" s="3">
-        <v>-0.0066</v>
+        <v>-0.0134</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.0207</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>-0.0066</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
       <c r="A10" s="2">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="B10" s="3">
-        <v>-0.0018</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>-0.0207</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
       <c r="A11" s="2">
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="B11" s="3">
-        <v>-0.0034</v>
+        <v>-0.0018</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>27</v>
@@ -966,61 +975,61 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-0.0034</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
-      <c r="A13" s="2">
-        <v>43322</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.0003</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
       <c r="A14" s="2">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="B14" s="3">
-        <v>0.0183</v>
+        <v>0.0003</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="B15" s="3">
-        <v>-0.0127</v>
+        <v>0.0183</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1029,34 +1038,34 @@
     </row>
     <row r="16" ht="18" spans="1:7">
       <c r="A16" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="B16" s="3">
-        <v>0.0274</v>
+        <v>-0.0127</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
       <c r="A17" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="B17" s="3">
-        <v>-0.0129</v>
+        <v>0.0274</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>41</v>
       </c>
@@ -1064,39 +1073,39 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.0129</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:7">
-      <c r="A19" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B19" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:7">
       <c r="A20" s="2">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="B20" s="3">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>45</v>
@@ -1107,35 +1116,35 @@
       <c r="E20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
     </row>
     <row r="22" ht="18" spans="1:7">
       <c r="A22" s="2">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B22" s="3">
-        <v>0.0026</v>
+        <v>-0.018</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>52</v>
@@ -1151,10 +1160,10 @@
     </row>
     <row r="23" ht="18" spans="1:7">
       <c r="A23" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B23" s="3">
-        <v>-0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>55</v>
@@ -1162,82 +1171,82 @@
       <c r="D23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="18" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B24" s="3">
+        <v>-0.0016</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:7">
-      <c r="A25" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B25" s="3">
-        <v>-0.003</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" ht="18" spans="1:7">
       <c r="A26" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B26" s="3">
-        <v>-0.0074</v>
+        <v>-0.003</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.0007</v>
+        <v>-0.0074</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" ht="18" spans="1:5">
+    <row r="28" ht="18" spans="1:7">
       <c r="A28" s="2">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B28" s="3">
-        <v>0.0161</v>
+        <v>-0.0007</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>66</v>
@@ -1248,13 +1257,15 @@
       <c r="E28" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" ht="18" spans="1:7">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" ht="18" spans="1:5">
       <c r="A29" s="2">
-        <v>43304</v>
+        <v>43305</v>
       </c>
       <c r="B29" s="3">
-        <v>0.0107</v>
+        <v>0.0161</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>69</v>
@@ -1265,43 +1276,41 @@
       <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
     </row>
     <row r="30" ht="18" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.0107</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" ht="18" spans="1:7">
-      <c r="A31" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" ht="18" spans="1:7">
       <c r="A32" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B32" s="3">
-        <v>-0.005</v>
+        <v>0.0205</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>75</v>
@@ -1317,10 +1326,10 @@
     </row>
     <row r="33" ht="18" spans="1:7">
       <c r="A33" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B33" s="3">
-        <v>-0.0039</v>
+        <v>-0.005</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>78</v>
@@ -1336,10 +1345,10 @@
     </row>
     <row r="34" ht="18" spans="1:7">
       <c r="A34" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B34" s="3">
-        <v>-0.0057</v>
+        <v>-0.0039</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>81</v>
@@ -1355,10 +1364,10 @@
     </row>
     <row r="35" ht="18" spans="1:7">
       <c r="A35" s="2">
-        <v>43297</v>
+        <v>43298</v>
       </c>
       <c r="B35" s="3">
-        <v>-0.0061</v>
+        <v>-0.0057</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>84</v>
@@ -1369,67 +1378,67 @@
       <c r="E35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" ht="18" spans="1:7">
+      <c r="A36" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-0.0061</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" ht="18" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" ht="18" spans="1:7">
-      <c r="A37" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.0023</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" ht="18" spans="1:7">
       <c r="A38" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B38" s="3">
-        <v>0.0216</v>
+        <v>0.0023</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="D38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" ht="18" spans="1:7">
       <c r="A39" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B39" s="3">
-        <v>-0.0176</v>
+        <v>0.0216</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>94</v>
       </c>
@@ -1438,10 +1447,10 @@
     </row>
     <row r="40" ht="18" spans="1:7">
       <c r="A40" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B40" s="3">
-        <v>0.0044</v>
+        <v>-0.0176</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>95</v>
@@ -1453,56 +1462,75 @@
         <v>97</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" ht="18" spans="1:7">
       <c r="A41" s="2">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="B41" s="3">
-        <v>0.0247</v>
+        <v>0.0044</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="42" ht="18" spans="1:7">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" ht="18" spans="1:7">
-      <c r="A43" s="2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" ht="18" spans="1:7">
+      <c r="A44" s="2">
         <v>43287</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B44" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20310" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="20280" windowHeight="7950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>银行、高送转、海南、水利、养殖业、物流</t>
+  </si>
+  <si>
+    <t>燃料乙醇、煤炭、种植业与林业、5G、军工、白酒</t>
+  </si>
+  <si>
+    <t>1. 取消中资银行和金融资产管理公司外资持股比例限制. 2. 李克强：抓紧推进西部急需的重大工程</t>
   </si>
   <si>
     <t>农业服务、燃料乙醇、国产软件、通信设备、5G、次新股、半导体</t>
@@ -766,7 +775,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -817,10 +826,10 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0037</v>
+        <v>0.0013</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -836,10 +845,10 @@
     </row>
     <row r="4" ht="18" spans="1:7">
       <c r="A4" s="2">
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="B4" s="3">
-        <v>-0.007</v>
+        <v>0.0037</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -855,10 +864,10 @@
     </row>
     <row r="5" ht="18" spans="1:7">
       <c r="A5" s="2">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="B5" s="3">
-        <v>0.0131</v>
+        <v>-0.007</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -874,10 +883,10 @@
     </row>
     <row r="6" ht="18" spans="1:7">
       <c r="A6" s="2">
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="B6" s="3">
-        <v>0.0111</v>
+        <v>0.0131</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -892,94 +901,94 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="2">
+        <v>43332</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.0111</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
-      <c r="A8" s="2">
-        <v>43329</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-0.0134</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.0066</v>
+        <v>-0.0134</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
       <c r="A10" s="2">
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="B10" s="3">
-        <v>-0.0207</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>-0.0066</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
       <c r="A11" s="2">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="B11" s="3">
-        <v>-0.0018</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <v>-0.0207</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
       <c r="A12" s="2">
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="B12" s="3">
-        <v>-0.0034</v>
+        <v>-0.0018</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>30</v>
@@ -994,61 +1003,61 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-0.0034</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
-      <c r="A14" s="2">
-        <v>43322</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.0003</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="B15" s="3">
-        <v>0.0183</v>
+        <v>0.0003</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" ht="18" spans="1:7">
       <c r="A16" s="2">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="B16" s="3">
-        <v>-0.0127</v>
+        <v>0.0183</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1057,34 +1066,34 @@
     </row>
     <row r="17" ht="18" spans="1:7">
       <c r="A17" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="B17" s="3">
-        <v>0.0274</v>
+        <v>-0.0127</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="B18" s="3">
-        <v>-0.0129</v>
+        <v>0.0274</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
@@ -1092,39 +1101,39 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-0.0129</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:7">
-      <c r="A20" s="2">
-        <v>43315</v>
-      </c>
-      <c r="B20" s="3">
-        <v>-0.01</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43314</v>
+        <v>43315</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>48</v>
@@ -1135,35 +1144,35 @@
       <c r="E21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" ht="18" spans="1:7">
       <c r="A22" s="2">
-        <v>43313</v>
+        <v>43314</v>
       </c>
       <c r="B22" s="3">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
     </row>
     <row r="23" ht="18" spans="1:7">
       <c r="A23" s="2">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B23" s="3">
-        <v>0.0026</v>
+        <v>-0.018</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>55</v>
@@ -1179,10 +1188,10 @@
     </row>
     <row r="24" ht="18" spans="1:7">
       <c r="A24" s="2">
-        <v>43311</v>
+        <v>43312</v>
       </c>
       <c r="B24" s="3">
-        <v>-0.0016</v>
+        <v>0.0026</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>58</v>
@@ -1190,82 +1199,82 @@
       <c r="D24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-0.0016</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" ht="18" spans="1:7">
-      <c r="A26" s="2">
-        <v>43308</v>
-      </c>
-      <c r="B26" s="3">
-        <v>-0.003</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.0074</v>
+        <v>-0.003</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="28" ht="18" spans="1:7">
       <c r="A28" s="2">
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="B28" s="3">
-        <v>-0.0007</v>
+        <v>-0.0074</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" ht="18" spans="1:5">
+    <row r="29" ht="18" spans="1:7">
       <c r="A29" s="2">
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="B29" s="3">
-        <v>0.0161</v>
+        <v>-0.0007</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>69</v>
@@ -1276,13 +1285,15 @@
       <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" ht="18" spans="1:7">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" ht="18" spans="1:5">
       <c r="A30" s="2">
-        <v>43304</v>
+        <v>43305</v>
       </c>
       <c r="B30" s="3">
-        <v>0.0107</v>
+        <v>0.0161</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>72</v>
@@ -1293,43 +1304,41 @@
       <c r="E30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
     </row>
     <row r="31" ht="18" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="A31" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.0107</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" ht="18" spans="1:7">
-      <c r="A32" s="2">
-        <v>43301</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.0205</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" ht="18" spans="1:7">
       <c r="A33" s="2">
-        <v>43300</v>
+        <v>43301</v>
       </c>
       <c r="B33" s="3">
-        <v>-0.005</v>
+        <v>0.0205</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>78</v>
@@ -1345,10 +1354,10 @@
     </row>
     <row r="34" ht="18" spans="1:7">
       <c r="A34" s="2">
-        <v>43299</v>
+        <v>43300</v>
       </c>
       <c r="B34" s="3">
-        <v>-0.0039</v>
+        <v>-0.005</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>81</v>
@@ -1364,10 +1373,10 @@
     </row>
     <row r="35" ht="18" spans="1:7">
       <c r="A35" s="2">
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="B35" s="3">
-        <v>-0.0057</v>
+        <v>-0.0039</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>84</v>
@@ -1383,10 +1392,10 @@
     </row>
     <row r="36" ht="18" spans="1:7">
       <c r="A36" s="2">
-        <v>43297</v>
+        <v>43298</v>
       </c>
       <c r="B36" s="3">
-        <v>-0.0061</v>
+        <v>-0.0057</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>87</v>
@@ -1397,67 +1406,67 @@
       <c r="E36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" ht="18" spans="1:7">
+      <c r="A37" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B37" s="3">
+        <v>-0.0061</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" ht="18" spans="1:7">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" ht="18" spans="1:7">
-      <c r="A38" s="2">
-        <v>43294</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.0023</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" ht="18" spans="1:7">
       <c r="A39" s="2">
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="B39" s="3">
-        <v>0.0216</v>
+        <v>0.0023</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="D39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" ht="18" spans="1:7">
       <c r="A40" s="2">
-        <v>43292</v>
+        <v>43293</v>
       </c>
       <c r="B40" s="3">
-        <v>-0.0176</v>
+        <v>0.0216</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>97</v>
       </c>
@@ -1466,10 +1475,10 @@
     </row>
     <row r="41" ht="18" spans="1:7">
       <c r="A41" s="2">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="B41" s="3">
-        <v>0.0044</v>
+        <v>-0.0176</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>98</v>
@@ -1481,56 +1490,75 @@
         <v>100</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" ht="18" spans="1:7">
       <c r="A42" s="2">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="B42" s="3">
-        <v>0.0247</v>
+        <v>0.0044</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="43" ht="18" spans="1:7">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" ht="18" spans="1:7">
-      <c r="A44" s="2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" ht="18" spans="1:7">
+      <c r="A45" s="2">
         <v>43287</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>活跃概念</t>
+  </si>
+  <si>
+    <t>分散染料、超导、大飞机</t>
+  </si>
+  <si>
+    <t>公交、可燃冰、宁夏</t>
+  </si>
+  <si>
+    <t>金融委：召开化解金融风险专题会议</t>
+  </si>
+  <si>
+    <t>5G、国防军工、白酒</t>
+  </si>
+  <si>
+    <t>央行启动逆周期因子</t>
   </si>
   <si>
     <t>银行、高送转、海南、水利、养殖业、物流</t>
@@ -356,10 +371,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -775,10 +790,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -826,10 +841,10 @@
     </row>
     <row r="3" ht="18" spans="1:7">
       <c r="A3" s="2">
-        <v>43336</v>
+        <v>43340</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0013</v>
+        <v>-0.0011</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -845,112 +860,112 @@
     </row>
     <row r="4" ht="18" spans="1:7">
       <c r="A4" s="2">
-        <v>43335</v>
+        <v>43339</v>
       </c>
       <c r="B4" s="3">
-        <v>0.0037</v>
+        <v>0.0189</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:7">
-      <c r="A5" s="2">
-        <v>43334</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-0.007</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:7">
       <c r="A6" s="2">
-        <v>43333</v>
+        <v>43336</v>
       </c>
       <c r="B6" s="3">
-        <v>0.0131</v>
+        <v>0.0013</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:7">
       <c r="A7" s="2">
-        <v>43332</v>
+        <v>43335</v>
       </c>
       <c r="B7" s="3">
-        <v>0.0111</v>
+        <v>0.0037</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="2">
+        <v>43334</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-0.007</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:7">
       <c r="A9" s="2">
-        <v>43329</v>
+        <v>43333</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.0134</v>
+        <v>0.0131</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:7">
       <c r="A10" s="2">
-        <v>43328</v>
+        <v>43332</v>
       </c>
       <c r="B10" s="3">
-        <v>-0.0066</v>
+        <v>0.0111</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
@@ -965,278 +980,278 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:7">
-      <c r="A11" s="2">
-        <v>43327</v>
-      </c>
-      <c r="B11" s="3">
-        <v>-0.0207</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:7">
       <c r="A12" s="2">
-        <v>43326</v>
+        <v>43329</v>
       </c>
       <c r="B12" s="3">
-        <v>-0.0018</v>
+        <v>-0.0134</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:7">
       <c r="A13" s="2">
-        <v>43325</v>
+        <v>43328</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.0034</v>
+        <v>-0.0066</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-0.0207</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" ht="18" spans="1:7">
       <c r="A15" s="2">
-        <v>43322</v>
+        <v>43326</v>
       </c>
       <c r="B15" s="3">
-        <v>0.0003</v>
+        <v>-0.0018</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" ht="18" spans="1:7">
       <c r="A16" s="2">
-        <v>43321</v>
+        <v>43325</v>
       </c>
       <c r="B16" s="3">
-        <v>0.0183</v>
+        <v>-0.0034</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:7">
-      <c r="A17" s="2">
-        <v>43320</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-0.0127</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43319</v>
+        <v>43322</v>
       </c>
       <c r="B18" s="3">
-        <v>0.0274</v>
+        <v>0.0003</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:7">
       <c r="A19" s="2">
-        <v>43318</v>
+        <v>43321</v>
       </c>
       <c r="B19" s="3">
-        <v>-0.0129</v>
+        <v>0.0183</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="2">
+        <v>43320</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-0.0127</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" ht="18" spans="1:7">
       <c r="A21" s="2">
-        <v>43315</v>
+        <v>43319</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.01</v>
+        <v>0.0274</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" ht="18" spans="1:7">
       <c r="A22" s="2">
-        <v>43314</v>
+        <v>43318</v>
       </c>
       <c r="B22" s="3">
-        <v>-0.02</v>
+        <v>-0.0129</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" ht="18" spans="1:7">
-      <c r="A23" s="2">
-        <v>43313</v>
-      </c>
-      <c r="B23" s="3">
-        <v>-0.018</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="18" spans="1:7">
       <c r="A24" s="2">
-        <v>43312</v>
+        <v>43315</v>
       </c>
       <c r="B24" s="3">
-        <v>0.0026</v>
+        <v>-0.01</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:7">
       <c r="A25" s="2">
-        <v>43311</v>
+        <v>43314</v>
       </c>
       <c r="B25" s="3">
-        <v>-0.0016</v>
+        <v>-0.02</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:7">
+      <c r="A26" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-0.018</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" ht="18" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" ht="18" spans="1:7">
       <c r="A27" s="2">
-        <v>43308</v>
+        <v>43312</v>
       </c>
       <c r="B27" s="3">
-        <v>-0.003</v>
+        <v>0.0026</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>63</v>
@@ -1248,317 +1263,362 @@
         <v>65</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" ht="18" spans="1:7">
       <c r="A28" s="2">
-        <v>43307</v>
+        <v>43311</v>
       </c>
       <c r="B28" s="3">
-        <v>-0.0074</v>
+        <v>-0.0016</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="2">
-        <v>43306</v>
-      </c>
-      <c r="B29" s="3">
-        <v>-0.0007</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" ht="18" spans="1:5">
+    <row r="30" ht="18" spans="1:7">
       <c r="A30" s="2">
-        <v>43305</v>
+        <v>43308</v>
       </c>
       <c r="B30" s="3">
-        <v>0.0161</v>
+        <v>-0.003</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" ht="18" spans="1:7">
       <c r="A31" s="2">
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="B31" s="3">
-        <v>0.0107</v>
+        <v>-0.0074</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>77</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" ht="18" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="A32" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B32" s="3">
+        <v>-0.0007</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" ht="18" spans="1:7">
+    <row r="33" ht="18" spans="1:5">
       <c r="A33" s="2">
-        <v>43301</v>
+        <v>43305</v>
       </c>
       <c r="B33" s="3">
-        <v>0.0205</v>
+        <v>0.0161</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
     </row>
     <row r="34" ht="18" spans="1:7">
       <c r="A34" s="2">
-        <v>43300</v>
+        <v>43304</v>
       </c>
       <c r="B34" s="3">
-        <v>-0.005</v>
+        <v>0.0107</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" ht="18" spans="1:7">
-      <c r="A35" s="2">
-        <v>43299</v>
-      </c>
-      <c r="B35" s="3">
-        <v>-0.0039</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" ht="18" spans="1:7">
       <c r="A36" s="2">
-        <v>43298</v>
+        <v>43301</v>
       </c>
       <c r="B36" s="3">
-        <v>-0.0057</v>
+        <v>0.0205</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" ht="18" spans="1:7">
       <c r="A37" s="2">
-        <v>43297</v>
+        <v>43300</v>
       </c>
       <c r="B37" s="3">
-        <v>-0.0061</v>
+        <v>-0.005</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" ht="18" spans="1:7">
+      <c r="A38" s="2">
+        <v>43299</v>
+      </c>
+      <c r="B38" s="3">
+        <v>-0.0039</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" ht="18" spans="1:7">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" ht="18" spans="1:7">
       <c r="A39" s="2">
-        <v>43294</v>
+        <v>43298</v>
       </c>
       <c r="B39" s="3">
-        <v>0.0023</v>
+        <v>-0.0057</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" ht="18" spans="1:7">
       <c r="A40" s="2">
-        <v>43293</v>
+        <v>43297</v>
       </c>
       <c r="B40" s="3">
-        <v>0.0216</v>
+        <v>-0.0061</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" ht="18" spans="1:7">
-      <c r="A41" s="2">
-        <v>43292</v>
-      </c>
-      <c r="B41" s="3">
-        <v>-0.0176</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" ht="18" spans="1:7">
       <c r="A42" s="2">
-        <v>43291</v>
+        <v>43294</v>
       </c>
       <c r="B42" s="3">
-        <v>0.0044</v>
+        <v>0.0023</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" ht="18" spans="1:7">
       <c r="A43" s="2">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="B43" s="3">
-        <v>0.0247</v>
+        <v>0.0216</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" ht="18" spans="1:7">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B44" s="3">
+        <v>-0.0176</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" ht="18" spans="1:7">
       <c r="A45" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.0044</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" ht="18" spans="1:7">
+      <c r="A46" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.0247</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" ht="18" spans="1:7">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" ht="18" spans="1:7">
+      <c r="A48" s="2">
         <v>43287</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B48" s="3">
         <v>0.0049</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G45" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-ST市场记录.xlsx
+++ b/2018-ST市场记录.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="20280" windowHeight="7950" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="8月" sheetId="1" r:id="rId1"/>
+    <sheet name="9月" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>日期</t>
   </si>
@@ -39,6 +39,27 @@
     <t>活跃概念</t>
   </si>
   <si>
+    <t>知识产权保护，银行，地下网管，养殖业</t>
+  </si>
+  <si>
+    <t>在线旅游，次新，电子竞技，白酒，家电</t>
+  </si>
+  <si>
+    <t>共享单车</t>
+  </si>
+  <si>
+    <t>水泥，网络安全，数字中国</t>
+  </si>
+  <si>
+    <t>知识产权保护，养殖，网络安全</t>
+  </si>
+  <si>
+    <t>钛白粉，高送转，稀土永磁</t>
+  </si>
+  <si>
+    <t>财政部长刘坤，加大基础设施领域补短板力度。2.李克强，将采取更为严格的知识产权保护措施。3.</t>
+  </si>
+  <si>
     <t>分散染料、超导、大飞机</t>
   </si>
   <si>
@@ -364,6 +385,18 @@
   </si>
   <si>
     <t>#1</t>
+  </si>
+  <si>
+    <t>军工、种植业与林业、养殖业、乳业、国产软件</t>
+  </si>
+  <si>
+    <t>高送转、5G、ST、网约车、汽车整车、有色</t>
+  </si>
+  <si>
+    <t>1、证监会发布沪伦通监管框架草案。2.证监会答复政协提案：支持符合条件安防监控和芯片产业企业上市融资</t>
+  </si>
+  <si>
+    <t>1.旅游，消费，科技，宁夏</t>
   </si>
 </sst>
 </file>
@@ -371,10 +404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -443,9 +476,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -790,10 +825,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="3:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -831,794 +866,847 @@
       </c>
     </row>
     <row r="2" ht="18" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="18" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
+        <v>43343</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-0.0046</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="18" spans="1:7">
+      <c r="A4" s="4">
+        <v>43342</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-0.0114</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="18" spans="1:7">
+      <c r="A5" s="4">
+        <v>43341</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-0.0031</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="18" spans="1:7">
+      <c r="A6" s="4">
         <v>43340</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B6" s="5">
         <v>-0.0011</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="18" spans="1:7">
-      <c r="A4" s="2">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="18" spans="1:7">
+      <c r="A7" s="4">
         <v>43339</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B7" s="5">
         <v>0.0189</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="18" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="18" spans="1:7">
-      <c r="A6" s="2">
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" ht="18" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="18" spans="1:7">
+      <c r="A9" s="4">
         <v>43336</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B9" s="5">
         <v>0.0013</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="18" spans="1:7">
-      <c r="A7" s="2">
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="18" spans="1:7">
+      <c r="A10" s="4">
         <v>43335</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B10" s="5">
         <v>0.0037</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="18" spans="1:7">
-      <c r="A8" s="2">
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" ht="18" spans="1:7">
+      <c r="A11" s="4">
         <v>43334</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B11" s="5">
         <v>-0.007</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="18" spans="1:7">
-      <c r="A9" s="2">
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" ht="18" spans="1:7">
+      <c r="A12" s="4">
         <v>43333</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B12" s="5">
         <v>0.0131</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="2">
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" ht="18" spans="1:7">
+      <c r="A13" s="4">
         <v>43332</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B13" s="5">
         <v>0.0111</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="18" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" ht="18" spans="1:7">
-      <c r="A12" s="2">
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" ht="18" spans="1:7">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" ht="18" spans="1:7">
+      <c r="A15" s="4">
         <v>43329</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B15" s="5">
         <v>-0.0134</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" ht="18" spans="1:7">
-      <c r="A13" s="2">
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" ht="18" spans="1:7">
+      <c r="A16" s="4">
         <v>43328</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B16" s="5">
         <v>-0.0066</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" ht="18" spans="1:7">
-      <c r="A14" s="2">
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" ht="18" spans="1:7">
+      <c r="A17" s="4">
         <v>43327</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B17" s="5">
         <v>-0.0207</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" ht="18" spans="1:7">
-      <c r="A15" s="2">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:7">
+      <c r="A18" s="4">
         <v>43326</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B18" s="5">
         <v>-0.0018</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" ht="18" spans="1:7">
-      <c r="A16" s="2">
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" ht="18" spans="1:7">
+      <c r="A19" s="4">
         <v>43325</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B19" s="5">
         <v>-0.0034</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="18" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" ht="18" spans="1:7">
-      <c r="A18" s="2">
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" ht="18" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" ht="18" spans="1:7">
+      <c r="A21" s="4">
         <v>43322</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B21" s="5">
         <v>0.0003</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" ht="18" spans="1:7">
-      <c r="A19" s="2">
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" ht="18" spans="1:7">
+      <c r="A22" s="4">
         <v>43321</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B22" s="5">
         <v>0.0183</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" ht="18" spans="1:7">
-      <c r="A20" s="2">
+      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" ht="18" spans="1:7">
+      <c r="A23" s="4">
         <v>43320</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B23" s="5">
         <v>-0.0127</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" ht="18" spans="1:7">
-      <c r="A21" s="2">
+      <c r="C23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" ht="18" spans="1:7">
+      <c r="A24" s="4">
         <v>43319</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B24" s="5">
         <v>0.0274</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" ht="18" spans="1:7">
-      <c r="A22" s="2">
+      <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" ht="18" spans="1:7">
+      <c r="A25" s="4">
         <v>43318</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B25" s="5">
         <v>-0.0129</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" ht="18" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" ht="18" spans="1:7">
-      <c r="A24" s="2">
+      <c r="C25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" ht="18" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" ht="18" spans="1:7">
+      <c r="A27" s="4">
         <v>43315</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B27" s="5">
         <v>-0.01</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" ht="18" spans="1:7">
-      <c r="A25" s="2">
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" ht="18" spans="1:7">
+      <c r="A28" s="4">
         <v>43314</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B28" s="5">
         <v>-0.02</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:7">
-      <c r="A26" s="2">
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" ht="18" spans="1:7">
+      <c r="A29" s="4">
         <v>43313</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B29" s="5">
         <v>-0.018</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" ht="18" spans="1:7">
-      <c r="A27" s="2">
+      <c r="C29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" ht="18" spans="1:7">
+      <c r="A30" s="4">
         <v>43312</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B30" s="5">
         <v>0.0026</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" ht="18" spans="1:7">
-      <c r="A28" s="2">
+      <c r="C30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" ht="18" spans="1:7">
+      <c r="A31" s="4">
         <v>43311</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B31" s="5">
         <v>-0.0016</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" ht="18" spans="1:7">
-      <c r="A30" s="2">
+      <c r="C31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" ht="18" spans="1:7">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" ht="18" spans="1:7">
+      <c r="A33" s="4">
         <v>43308</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B33" s="5">
         <v>-0.003</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" ht="18" spans="1:7">
-      <c r="A31" s="2">
+      <c r="C33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" ht="18" spans="1:7">
+      <c r="A34" s="4">
         <v>43307</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B34" s="5">
         <v>-0.0074</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" ht="18" spans="1:7">
-      <c r="A32" s="2">
+      <c r="C34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" ht="18" spans="1:7">
+      <c r="A35" s="4">
         <v>43306</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B35" s="5">
         <v>-0.0007</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" ht="18" spans="1:5">
-      <c r="A33" s="2">
+      <c r="C35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" ht="18" spans="1:5">
+      <c r="A36" s="4">
         <v>43305</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B36" s="5">
         <v>0.0161</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" ht="18" spans="1:7">
-      <c r="A34" s="2">
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" ht="18" spans="1:7">
+      <c r="A37" s="4">
         <v>43304</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B37" s="5">
         <v>0.0107</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" ht="18" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" ht="18" spans="1:7">
-      <c r="A36" s="2">
+      <c r="C37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" ht="18" spans="1:7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" ht="18" spans="1:7">
+      <c r="A39" s="4">
         <v>43301</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B39" s="5">
         <v>0.0205</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" ht="18" spans="1:7">
-      <c r="A37" s="2">
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" ht="18" spans="1:7">
+      <c r="A40" s="4">
         <v>43300</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B40" s="5">
         <v>-0.005</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" ht="18" spans="1:7">
-      <c r="A38" s="2">
+      <c r="C40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" ht="18" spans="1:7">
+      <c r="A41" s="4">
         <v>43299</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B41" s="5">
         <v>-0.0039</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" ht="18" spans="1:7">
-      <c r="A39" s="2">
+      <c r="C41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" ht="18" spans="1:7">
+      <c r="A42" s="4">
         <v>43298</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B42" s="5">
         <v>-0.0057</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" ht="18" spans="1:7">
-      <c r="A40" s="2">
+      <c r="C42" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" ht="18" spans="1:7">
+      <c r="A43" s="4">
         <v>43297</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B43" s="5">
         <v>-0.0061</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" ht="18" spans="1:7">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" ht="18" spans="1:7">
-      <c r="A42" s="2">
+      <c r="C43" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" ht="18" spans="1:7">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" ht="18" spans="1:7">
+      <c r="A45" s="4">
         <v>43294</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B45" s="5">
         <v>0.0023</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" ht="18" spans="1:7">
-      <c r="A43" s="2">
+      <c r="C45" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" ht="18" spans="1:7">
+      <c r="A46" s="4">
         <v>43293</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B46" s="5">
         <v>0.0216</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" ht="18" spans="1:7">
-      <c r="A44" s="2">
+      <c r="C46" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" ht="18" spans="1:7">
+      <c r="A47" s="4">
         <v>43292</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B47" s="5">
         <v>-0.0176</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" ht="18" spans="1:7">
-      <c r="A45" s="2">
+      <c r="C47" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" ht="18" spans="1:7">
+      <c r="A48" s="4">
         <v>43291</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B48" s="5">
         <v>0.0044</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" ht="18" spans="1:7">
-      <c r="A46" s="2">
+      <c r="C48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:7">
+      <c r="A49" s="4">
         <v>43290</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B49" s="5">
         <v>0.0247</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" ht="18" spans="1:7">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" ht="18" spans="1:7">
-      <c r="A48" s="2">
+      <c r="C49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" ht="18" spans="1:7">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" ht="18" spans="1:7">
+      <c r="A51" s="4">
         <v>43287</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B51" s="5">
         <v>0.0049</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="4"/>
+      <c r="C51" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1630,18 +1718,67 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="2:3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="9.875"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
     <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="35.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="18" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>43346</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-0.0017</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
